--- a/document/测试/chatbot_测试用例.xlsx
+++ b/document/测试/chatbot_测试用例.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="525">
   <si>
     <t>音乐播放器功能测试清单</t>
   </si>
@@ -2568,20 +2568,16 @@
 3.将输出结果与输入信息进行对比</t>
   </si>
   <si>
-    <t>输出对象的Domain=“music”
-                   Intent=“music.search”
+    <t>输出对象的Domain=“chat”
+                   Intent=“chat”
                    Slots[0].Name=null
                    Slots[0].Value=null
                    Slots[1].Name=null
                    Slots[1].Value=null。</t>
   </si>
   <si>
-    <t>例句：我想听歌
-通过</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">例句：请播放音乐
+    <r>
+      <t xml:space="preserve">例句：我想听歌
 </t>
     </r>
     <r>
@@ -2593,6 +2589,10 @@
       </rPr>
       <t>失败</t>
     </r>
+  </si>
+  <si>
+    <t>例句：请播放音乐
+通过</t>
   </si>
   <si>
     <t>例句：请播放一首歌
@@ -2642,8 +2642,12 @@
                    Slots[1].Value=null。</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">例句：请播放一首刘德华的歌
+    <t>例句：请播放一首刘德华的歌
+通过</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">例句：我想听薛之谦的歌
 </t>
     </r>
     <r>
@@ -2655,10 +2659,6 @@
       </rPr>
       <t>失败</t>
     </r>
-  </si>
-  <si>
-    <t>例句：我想听薛之谦的歌
-通过</t>
   </si>
   <si>
     <t>例句：请播放刘德华的歌
@@ -2802,15 +2802,13 @@
     <t>需解析字符串中没有“听”和“播放”等词</t>
   </si>
   <si>
-    <t>输出对象的Domain=“chat”
-                   Intent=“chat”
-                   Slots[0].Name=null
-                   Slots[0].Value=null
-                   Slots[1].Name=null
-                   Slots[1].Value=null。</t>
-  </si>
-  <si>
-    <r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">例句：你好
 </t>
     </r>
@@ -2826,6 +2824,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">例句：今天天气好吗？
 </t>
     </r>
@@ -2878,8 +2881,12 @@
                    Slots[1].Value=null。</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">例句：刘德华怎么样？
+    <t>例句：刘德华怎么样？
+通过</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">例句：喜欢薛之谦这个人吗？
 </t>
     </r>
     <r>
@@ -2891,10 +2898,6 @@
       </rPr>
       <t>失败</t>
     </r>
-  </si>
-  <si>
-    <t>例句：喜欢薛之谦这个人吗？
-通过</t>
   </si>
   <si>
     <t>例句：刘德华
@@ -3657,8 +3660,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="_ \¥* #,##0.00_ ;_ \¥* \-#,##0.00_ ;_ \¥* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
@@ -3831,21 +3834,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3859,6 +3862,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -3866,10 +3885,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3889,6 +3917,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -3897,11 +3954,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3922,60 +3978,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4093,7 +4096,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4105,103 +4126,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4219,7 +4150,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4231,7 +4168,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4243,25 +4216,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4274,6 +4265,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4508,6 +4511,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -4517,26 +4535,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4557,6 +4562,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -4567,21 +4587,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4597,11 +4602,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4611,145 +4614,145 @@
     <xf numFmtId="42" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="19" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="18" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="14" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="16" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="15" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -8129,8 +8132,8 @@
   <sheetPr/>
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="64" topLeftCell="F4" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="64" topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8319,22 +8322,22 @@
         <v>416</v>
       </c>
       <c r="G6" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="H6" s="14" t="s">
         <v>437</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="I6" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="J6" s="14" t="s">
         <v>439</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>440</v>
       </c>
       <c r="K6" s="9"/>
     </row>
     <row r="7" ht="112.5" spans="1:11">
       <c r="A7" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="7"/>
@@ -8348,22 +8351,22 @@
         <v>416</v>
       </c>
       <c r="G7" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="H7" s="9" t="s">
         <v>442</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="I7" s="12" t="s">
         <v>443</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="J7" s="9" t="s">
         <v>444</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>445</v>
       </c>
       <c r="K7" s="9"/>
     </row>
     <row r="8" ht="112.5" spans="1:11">
       <c r="A8" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="7"/>
@@ -8377,22 +8380,22 @@
         <v>416</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>437</v>
+        <v>409</v>
       </c>
       <c r="H8" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="I8" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="J8" s="9" t="s">
         <v>448</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>449</v>
       </c>
       <c r="K8" s="9"/>
     </row>
     <row r="9" ht="112.5" spans="1:11">
       <c r="A9" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="7"/>
@@ -8409,400 +8412,400 @@
         <v>429</v>
       </c>
       <c r="H9" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="I9" s="9" t="s">
         <v>451</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="J9" s="9" t="s">
         <v>452</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>453</v>
       </c>
       <c r="K9" s="9"/>
     </row>
     <row r="10" ht="409.5" spans="1:11">
       <c r="A10" s="15" t="s">
+        <v>453</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>454</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>455</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="F10" s="9" t="s">
         <v>457</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="G10" s="9" t="s">
         <v>458</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="H10" s="18" t="s">
         <v>459</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="I10" s="18" t="s">
         <v>460</v>
       </c>
-      <c r="I10" s="18" t="s">
+      <c r="J10" s="18" t="s">
         <v>461</v>
-      </c>
-      <c r="J10" s="18" t="s">
-        <v>462</v>
       </c>
       <c r="K10" s="9"/>
     </row>
     <row r="11" ht="93.75" spans="1:11">
       <c r="A11" s="15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="7"/>
       <c r="D11" s="9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>415</v>
       </c>
       <c r="F11" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="H11" s="18" t="s">
         <v>465</v>
       </c>
-      <c r="G11" s="9" t="s">
-        <v>465</v>
-      </c>
-      <c r="H11" s="18" t="s">
+      <c r="I11" s="18" t="s">
         <v>466</v>
       </c>
-      <c r="I11" s="18" t="s">
+      <c r="J11" s="18" t="s">
         <v>467</v>
-      </c>
-      <c r="J11" s="18" t="s">
-        <v>468</v>
       </c>
       <c r="K11" s="9"/>
     </row>
     <row r="12" ht="75" spans="1:11">
       <c r="A12" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="7"/>
       <c r="D12" s="9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>415</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H12" s="18" t="s">
+        <v>470</v>
+      </c>
+      <c r="I12" s="18" t="s">
         <v>471</v>
       </c>
-      <c r="I12" s="18" t="s">
+      <c r="J12" s="18" t="s">
         <v>472</v>
-      </c>
-      <c r="J12" s="18" t="s">
-        <v>473</v>
       </c>
       <c r="K12" s="9"/>
     </row>
     <row r="13" ht="409.5" spans="1:11">
       <c r="A13" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="B13" s="20" t="s">
         <v>474</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>475</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="F13" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="G13" s="22" t="s">
         <v>478</v>
       </c>
-      <c r="G13" s="22" t="s">
+      <c r="H13" s="9" t="s">
         <v>479</v>
       </c>
-      <c r="H13" s="9" t="s">
-        <v>480</v>
-      </c>
       <c r="I13" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="K13" s="9"/>
     </row>
     <row r="14" ht="409.5" spans="1:11">
       <c r="A14" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="24"/>
       <c r="D14" s="8" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>415</v>
       </c>
       <c r="F14" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="G14" s="9" t="s">
         <v>483</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="H14" s="9" t="s">
         <v>484</v>
       </c>
-      <c r="H14" s="9" t="s">
-        <v>485</v>
-      </c>
       <c r="I14" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="K14" s="9"/>
     </row>
     <row r="15" ht="56.25" spans="1:11">
       <c r="A15" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="B15" s="25" t="s">
         <v>486</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="C15" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="D15" s="8" t="s">
         <v>488</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="E15" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="F15" s="9" t="s">
         <v>490</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="G15" s="9" t="s">
         <v>491</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="H15" s="9" t="s">
         <v>492</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="I15" s="9" t="s">
         <v>493</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="J15" s="9" t="s">
         <v>494</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>495</v>
       </c>
       <c r="K15" s="9"/>
     </row>
     <row r="16" ht="75" spans="1:11">
       <c r="A16" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="7"/>
       <c r="D16" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>415</v>
       </c>
       <c r="F16" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="G16" s="9" t="s">
         <v>498</v>
       </c>
-      <c r="G16" s="9" t="s">
-        <v>499</v>
-      </c>
       <c r="H16" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="K16" s="9"/>
     </row>
     <row r="17" ht="56.25" spans="1:11">
       <c r="A17" s="5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="7"/>
       <c r="D17" s="8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>415</v>
       </c>
       <c r="F17" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>502</v>
       </c>
-      <c r="G17" s="9" t="s">
-        <v>503</v>
-      </c>
       <c r="H17" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="K17" s="9"/>
     </row>
     <row r="18" ht="37.5" spans="1:11">
       <c r="A18" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B18" s="25"/>
       <c r="C18" s="26"/>
       <c r="D18" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>505</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="F18" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="G18" s="9" t="s">
         <v>507</v>
       </c>
-      <c r="G18" s="9" t="s">
-        <v>508</v>
-      </c>
       <c r="H18" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="K18" s="9"/>
     </row>
     <row r="19" ht="56.25" spans="1:11">
       <c r="A19" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B19" s="25"/>
       <c r="C19" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="F19" s="9" t="s">
         <v>510</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>489</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>490</v>
-      </c>
-      <c r="F19" s="9" t="s">
+      <c r="G19" s="9" t="s">
         <v>511</v>
       </c>
-      <c r="G19" s="9" t="s">
-        <v>512</v>
-      </c>
       <c r="H19" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="I19" s="9" t="s">
         <v>493</v>
       </c>
-      <c r="I19" s="9" t="s">
+      <c r="J19" s="9" t="s">
         <v>494</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>495</v>
       </c>
       <c r="K19" s="9"/>
     </row>
     <row r="20" ht="37.5" spans="1:11">
       <c r="A20" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B20" s="25"/>
       <c r="C20" s="7"/>
       <c r="D20" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>514</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="F20" s="9" t="s">
         <v>515</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="G20" s="9" t="s">
         <v>516</v>
       </c>
-      <c r="G20" s="9" t="s">
-        <v>517</v>
-      </c>
       <c r="H20" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="K20" s="9"/>
     </row>
     <row r="21" ht="37.5" spans="1:11">
       <c r="A21" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B21" s="25"/>
       <c r="C21" s="7"/>
       <c r="D21" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="F21" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="E21" s="9" t="s">
-        <v>515</v>
-      </c>
-      <c r="F21" s="9" t="s">
+      <c r="G21" s="9" t="s">
         <v>520</v>
       </c>
-      <c r="G21" s="9" t="s">
-        <v>521</v>
-      </c>
       <c r="H21" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="K21" s="9"/>
     </row>
     <row r="22" ht="37.5" spans="1:11">
       <c r="A22" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B22" s="27"/>
       <c r="C22" s="26"/>
       <c r="D22" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="F22" s="9" t="s">
         <v>523</v>
       </c>
-      <c r="E22" s="9" t="s">
-        <v>515</v>
-      </c>
-      <c r="F22" s="9" t="s">
+      <c r="G22" s="9" t="s">
         <v>524</v>
       </c>
-      <c r="G22" s="9" t="s">
-        <v>525</v>
-      </c>
       <c r="H22" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="K22" s="9"/>
     </row>

--- a/document/测试/chatbot_测试用例.xlsx
+++ b/document/测试/chatbot_测试用例.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\chatbot_server\robochat\document\测试\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785" tabRatio="436" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7788" tabRatio="436" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="3" r:id="rId1"/>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="532">
   <si>
     <t>音乐播放器功能测试清单</t>
   </si>
@@ -32,6 +37,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>文档版</t>
@@ -40,6 +46,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>本</t>
@@ -62,6 +69,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>拟制人</t>
@@ -70,7 +78,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>/</t>
     </r>
@@ -78,6 +86,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>编写人</t>
@@ -86,7 +95,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>/</t>
     </r>
@@ -94,6 +103,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>修订者</t>
@@ -111,7 +121,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>TCL</t>
     </r>
@@ -120,6 +130,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>多媒体全球产品中心</t>
@@ -129,7 +140,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">                                                                                                            </t>
     </r>
@@ -138,6 +149,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>发布时间：</t>
@@ -147,7 +159,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2013</t>
     </r>
@@ -156,6 +168,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>年</t>
@@ -165,7 +178,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>03</t>
     </r>
@@ -174,6 +187,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月</t>
@@ -183,7 +197,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>8</t>
     </r>
@@ -192,6 +206,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>日</t>
@@ -201,7 +216,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">         </t>
     </r>
@@ -210,6 +225,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>用例</t>
@@ -219,6 +235,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>版本号：</t>
@@ -228,7 +245,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>V1.0</t>
     </r>
@@ -239,7 +256,7 @@
         <sz val="16"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">                                                     </t>
     </r>
@@ -249,6 +266,7 @@
         <sz val="16"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>应用商店测试用例</t>
@@ -258,7 +276,7 @@
         <sz val="16"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">                                    </t>
     </r>
@@ -267,7 +285,7 @@
         <sz val="14"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -276,7 +294,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> APK</t>
     </r>
@@ -285,6 +303,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>版本号</t>
@@ -294,7 +313,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>:   3.0</t>
     </r>
@@ -370,6 +389,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1.</t>
@@ -379,6 +399,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">可以正常完成升级，升级后可以正常进入
@@ -389,6 +410,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2.</t>
@@ -398,6 +420,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>升级过程中，显示升级进度条</t>
@@ -432,6 +455,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -441,6 +465,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.点击进入应用商店
@@ -491,6 +516,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -500,6 +526,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.打开应用商店首页
@@ -522,6 +549,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -531,6 +559,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.打开应用商店首页
@@ -596,6 +625,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -605,6 +635,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.当光标一直放在某个应用时，信息不会刷新。
@@ -617,6 +648,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>主题专区-</t>
@@ -626,6 +658,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>-合作专区</t>
@@ -866,6 +899,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1.当新品上架过了</t>
@@ -875,6 +909,7 @@
         <sz val="10"/>
         <color indexed="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>一定的时间</t>
@@ -884,6 +919,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>后，该应用就会自动离开。</t>
@@ -906,6 +942,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -915,6 +952,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.“热门排行”显示由后台根据商品销售和上架时间综合计算后自动排序的应用，管理员可以人工干预。排行榜显示排行前100位的应用，前10位的应用前显示数字排名。</t>
@@ -1005,6 +1043,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -1014,6 +1053,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.打开应用商店首页。
@@ -1027,6 +1067,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -1036,6 +1077,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.应用详情分为三部分：左边为应用名称、下载和分享。中间为应用的信息简介和用户评论。右边为相关应用推荐。</t>
@@ -1058,6 +1100,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -1067,6 +1110,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.点击下载时，应下载到flash空间，如果flash空间不足，应提示“请插入SD卡”。</t>
@@ -1081,6 +1125,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>下载-</t>
@@ -1090,6 +1135,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>SD卡空间不足</t>
@@ -1150,6 +1196,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -1159,6 +1206,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.点击“运行”时，应用能正常启动。</t>
@@ -1212,6 +1260,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -1221,6 +1270,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.点击“卸载”按钮及输入卸载理由后，能正常卸载应用。</t>
@@ -1274,6 +1324,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -1283,6 +1334,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.最多不能超过一屏推荐应用。</t>
@@ -1311,6 +1363,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -1320,6 +1373,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.用户的所有信息都能正常显示</t>
@@ -1356,6 +1410,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -1365,6 +1420,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.用户账户能被删除。</t>
@@ -1387,6 +1443,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -1396,6 +1453,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.能正常注册新账户。</t>
@@ -1836,6 +1894,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -1845,6 +1904,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.连接网络
@@ -1952,7 +2012,7 @@
         <sz val="10.5"/>
         <color indexed="56"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>1，</t>
     </r>
@@ -1961,7 +2021,7 @@
         <sz val="7"/>
         <color indexed="62"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -1970,6 +2030,7 @@
         <sz val="10.5"/>
         <color indexed="62"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>各种升级的种类，是否正常？（静默，强制，可选）</t>
@@ -1981,7 +2042,7 @@
         <sz val="10.5"/>
         <color indexed="56"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2，</t>
     </r>
@@ -1990,7 +2051,7 @@
         <sz val="7"/>
         <color indexed="62"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -1999,6 +2060,7 @@
         <sz val="10.5"/>
         <color indexed="62"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>上报欢网信息，例如次数，等是否正确？</t>
@@ -2010,7 +2072,7 @@
         <sz val="10.5"/>
         <color indexed="56"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>3，</t>
     </r>
@@ -2019,7 +2081,7 @@
         <sz val="7"/>
         <color indexed="62"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -2028,6 +2090,7 @@
         <sz val="10.5"/>
         <color indexed="62"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>按照</t>
@@ -2037,7 +2100,7 @@
         <sz val="10.5"/>
         <color indexed="62"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>clienttype部署升级的问题验证</t>
     </r>
@@ -2048,7 +2111,7 @@
         <sz val="10.5"/>
         <color indexed="56"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>4，</t>
     </r>
@@ -2057,7 +2120,7 @@
         <sz val="7"/>
         <color indexed="62"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -2066,6 +2129,7 @@
         <sz val="10.5"/>
         <color indexed="62"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>预装应用的升级</t>
@@ -2077,7 +2141,7 @@
         <sz val="10.5"/>
         <color indexed="56"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>5，</t>
     </r>
@@ -2086,7 +2150,7 @@
         <sz val="7"/>
         <color indexed="62"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -2095,6 +2159,7 @@
         <sz val="10.5"/>
         <color indexed="62"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>程序商店自身的升级</t>
@@ -2106,7 +2171,7 @@
         <sz val="10.5"/>
         <color indexed="56"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>6，</t>
     </r>
@@ -2115,7 +2180,7 @@
         <sz val="7"/>
         <color indexed="62"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -2124,6 +2189,7 @@
         <sz val="10.5"/>
         <color indexed="62"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>二期三期平台的顺利迁移升级（</t>
@@ -2133,7 +2199,7 @@
         <sz val="10.5"/>
         <color indexed="62"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2.6---2.7---3.0</t>
     </r>
@@ -2142,6 +2208,7 @@
         <sz val="10.5"/>
         <color indexed="62"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>的顺利升级）</t>
@@ -2153,7 +2220,7 @@
         <sz val="10.5"/>
         <color indexed="56"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>7，</t>
     </r>
@@ -2162,7 +2229,7 @@
         <sz val="7"/>
         <color indexed="62"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -2171,6 +2238,7 @@
         <sz val="10.5"/>
         <color indexed="62"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>关联</t>
@@ -2180,7 +2248,7 @@
         <sz val="10.5"/>
         <color indexed="62"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>apk</t>
     </r>
@@ -2189,6 +2257,7 @@
         <sz val="10.5"/>
         <color indexed="62"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>的升级</t>
@@ -2200,7 +2269,7 @@
         <sz val="10.5"/>
         <color indexed="56"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>8，</t>
     </r>
@@ -2209,7 +2278,7 @@
         <sz val="7"/>
         <color indexed="62"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -2218,6 +2287,7 @@
         <sz val="10.5"/>
         <color indexed="62"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>后台批量安装功能的验证</t>
@@ -2229,7 +2299,7 @@
         <sz val="10.5"/>
         <color indexed="56"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>9，</t>
     </r>
@@ -2238,7 +2308,7 @@
         <sz val="7"/>
         <color indexed="62"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -2247,6 +2317,7 @@
         <sz val="10.5"/>
         <color indexed="62"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>第三方升级应用的发现，上报</t>
@@ -2258,7 +2329,7 @@
         <sz val="10.5"/>
         <color indexed="56"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>10，</t>
     </r>
@@ -2267,7 +2338,7 @@
         <sz val="7"/>
         <color indexed="62"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">              </t>
     </r>
@@ -2276,6 +2347,7 @@
         <sz val="10.5"/>
         <color indexed="62"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>与游戏大厅，语音助手，</t>
@@ -2285,7 +2357,7 @@
         <sz val="10.5"/>
         <color indexed="62"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>launch</t>
     </r>
@@ -2294,6 +2366,7 @@
         <sz val="10.5"/>
         <color indexed="62"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>等等的关系</t>
@@ -2305,7 +2378,7 @@
         <sz val="10.5"/>
         <color indexed="56"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>11，</t>
     </r>
@@ -2314,7 +2387,7 @@
         <sz val="7"/>
         <color indexed="62"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">              </t>
     </r>
@@ -2323,6 +2396,7 @@
         <sz val="10.5"/>
         <color indexed="62"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>横竖屏的验证</t>
@@ -2334,7 +2408,7 @@
         <sz val="10.5"/>
         <color indexed="56"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>12，</t>
     </r>
@@ -2343,7 +2417,7 @@
         <sz val="7"/>
         <color indexed="62"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">              </t>
     </r>
@@ -2352,6 +2426,7 @@
         <sz val="10.5"/>
         <color indexed="62"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>广告功能的验证</t>
@@ -2363,7 +2438,7 @@
         <sz val="10.5"/>
         <color indexed="56"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>13，</t>
     </r>
@@ -2372,7 +2447,7 @@
         <sz val="7"/>
         <color indexed="62"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">              </t>
     </r>
@@ -2381,6 +2456,7 @@
         <sz val="10.5"/>
         <color indexed="62"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>强制卸载功能的验证。</t>
@@ -2392,7 +2468,7 @@
         <sz val="10.5"/>
         <color indexed="56"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>14，</t>
     </r>
@@ -2401,7 +2477,7 @@
         <sz val="7"/>
         <color indexed="62"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">              </t>
     </r>
@@ -2410,6 +2486,7 @@
         <sz val="10.5"/>
         <color indexed="62"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>交互式设备的属性等</t>
@@ -2421,7 +2498,7 @@
         <sz val="10.5"/>
         <color indexed="56"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -2430,6 +2507,7 @@
         <sz val="10.5"/>
         <color indexed="62"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>建议以下还有可能有些补充：</t>
@@ -2441,7 +2519,7 @@
         <sz val="10.5"/>
         <color indexed="56"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>         1.</t>
     </r>
@@ -2450,6 +2528,7 @@
         <sz val="10.5"/>
         <color indexed="62"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>与多屏互动，消息盒子之间的交互</t>
@@ -2459,7 +2538,7 @@
         <sz val="10.5"/>
         <color indexed="62"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -2468,6 +2547,7 @@
         <sz val="10.5"/>
         <color indexed="62"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>现在应用商店与其它应用交互比较多，建议一起测试</t>
@@ -2477,7 +2557,7 @@
         <sz val="10.5"/>
         <color indexed="62"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -2486,6 +2566,7 @@
         <sz val="10.5"/>
         <color indexed="62"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>；</t>
@@ -2497,7 +2578,7 @@
         <sz val="10.5"/>
         <color indexed="56"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>         2.</t>
     </r>
@@ -2506,6 +2587,7 @@
         <sz val="10.5"/>
         <color indexed="62"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>现在有些界面是可配置的，比如：所有应用的分类个数，合作专区个数。在测试的一段时间内，估计后台数据不会改变，这个可能需要欢网配合，多换几次数据，估计以后才敢动态添加分类。</t>
@@ -2528,7 +2610,7 @@
       <rPr>
         <sz val="14"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>Chatbot</t>
     </r>
@@ -2536,6 +2618,7 @@
       <rPr>
         <sz val="14"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>聊天机器人</t>
@@ -2544,7 +2627,7 @@
       <rPr>
         <sz val="14"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>-001</t>
     </r>
@@ -2585,6 +2668,7 @@
         <sz val="13"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>失败</t>
@@ -2603,7 +2687,7 @@
       <rPr>
         <sz val="14"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>Chatbot</t>
     </r>
@@ -2611,6 +2695,7 @@
       <rPr>
         <sz val="14"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>聊天机器人</t>
@@ -2619,7 +2704,7 @@
       <rPr>
         <sz val="14"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>-002</t>
     </r>
@@ -2655,6 +2740,7 @@
         <sz val="13"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>失败</t>
@@ -2669,7 +2755,7 @@
       <rPr>
         <sz val="14"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>Chatbot</t>
     </r>
@@ -2677,6 +2763,7 @@
       <rPr>
         <sz val="14"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>聊天机器人</t>
@@ -2685,7 +2772,7 @@
       <rPr>
         <sz val="14"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>-003</t>
     </r>
@@ -2720,7 +2807,7 @@
       <rPr>
         <sz val="14"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>Chatbot</t>
     </r>
@@ -2728,6 +2815,7 @@
       <rPr>
         <sz val="14"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>聊天机器人</t>
@@ -2736,7 +2824,7 @@
       <rPr>
         <sz val="14"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>-004</t>
     </r>
@@ -2770,7 +2858,7 @@
       <rPr>
         <sz val="14"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>Chatbot</t>
     </r>
@@ -2778,6 +2866,7 @@
       <rPr>
         <sz val="14"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>聊天机器人</t>
@@ -2786,7 +2875,7 @@
       <rPr>
         <sz val="14"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>-005</t>
     </r>
@@ -2807,6 +2896,7 @@
         <sz val="13"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">例句：你好
@@ -2817,6 +2907,7 @@
         <sz val="13"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>失败</t>
@@ -2827,6 +2918,7 @@
       <rPr>
         <sz val="13"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">例句：今天天气好吗？
@@ -2837,6 +2929,7 @@
         <sz val="13"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>失败</t>
@@ -2851,7 +2944,7 @@
       <rPr>
         <sz val="14"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>Chatbot</t>
     </r>
@@ -2859,6 +2952,7 @@
       <rPr>
         <sz val="14"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>聊天机器人</t>
@@ -2867,7 +2961,7 @@
       <rPr>
         <sz val="14"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>-006</t>
     </r>
@@ -2894,6 +2988,7 @@
         <sz val="13"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>失败</t>
@@ -2908,7 +3003,7 @@
       <rPr>
         <sz val="14"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>Chatbot</t>
     </r>
@@ -2916,6 +3011,7 @@
       <rPr>
         <sz val="14"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>聊天机器人</t>
@@ -2924,7 +3020,7 @@
       <rPr>
         <sz val="14"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>-007</t>
     </r>
@@ -2946,7 +3042,7 @@
       <rPr>
         <sz val="14"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>Chatbot</t>
     </r>
@@ -2954,6 +3050,7 @@
       <rPr>
         <sz val="14"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>聊天机器人</t>
@@ -2962,7 +3059,7 @@
       <rPr>
         <sz val="14"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>-008</t>
     </r>
@@ -2984,7 +3081,7 @@
       <rPr>
         <sz val="14"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>Chatbot</t>
     </r>
@@ -2992,6 +3089,7 @@
       <rPr>
         <sz val="14"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>聊天机器人</t>
@@ -3000,7 +3098,7 @@
       <rPr>
         <sz val="14"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>-009</t>
     </r>
@@ -3081,7 +3179,7 @@
       <rPr>
         <sz val="14"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>Chatbot</t>
     </r>
@@ -3089,6 +3187,7 @@
       <rPr>
         <sz val="14"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>聊天机器人</t>
@@ -3097,7 +3196,7 @@
       <rPr>
         <sz val="14"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>-010</t>
     </r>
@@ -3128,7 +3227,7 @@
       <rPr>
         <sz val="14"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>Chatbot</t>
     </r>
@@ -3136,6 +3235,7 @@
       <rPr>
         <sz val="14"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>聊天机器人</t>
@@ -3144,7 +3244,7 @@
       <rPr>
         <sz val="14"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>-011</t>
     </r>
@@ -3172,7 +3272,7 @@
       <rPr>
         <sz val="14"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>Chatbot</t>
     </r>
@@ -3180,6 +3280,7 @@
       <rPr>
         <sz val="14"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>聊天机器人</t>
@@ -3188,7 +3289,7 @@
       <rPr>
         <sz val="14"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>-012</t>
     </r>
@@ -3246,7 +3347,7 @@
       <rPr>
         <sz val="14"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>Chatbot</t>
     </r>
@@ -3254,6 +3355,7 @@
       <rPr>
         <sz val="14"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>聊天机器人</t>
@@ -3262,7 +3364,7 @@
       <rPr>
         <sz val="14"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>-013</t>
     </r>
@@ -3336,7 +3438,7 @@
       <rPr>
         <sz val="14"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>Chatbot</t>
     </r>
@@ -3344,6 +3446,7 @@
       <rPr>
         <sz val="14"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>聊天机器人</t>
@@ -3352,7 +3455,7 @@
       <rPr>
         <sz val="14"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>-014</t>
     </r>
@@ -3394,7 +3497,7 @@
       <rPr>
         <sz val="14"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>Chatbot</t>
     </r>
@@ -3402,6 +3505,7 @@
       <rPr>
         <sz val="14"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>聊天机器人</t>
@@ -3410,7 +3514,7 @@
       <rPr>
         <sz val="14"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>-015</t>
     </r>
@@ -3434,7 +3538,7 @@
       <rPr>
         <sz val="14"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>Chatbot</t>
     </r>
@@ -3442,6 +3546,7 @@
       <rPr>
         <sz val="14"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>聊天机器人</t>
@@ -3450,7 +3555,7 @@
       <rPr>
         <sz val="14"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>-016</t>
     </r>
@@ -3471,7 +3576,7 @@
       <rPr>
         <sz val="14"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>Chatbot</t>
     </r>
@@ -3479,6 +3584,7 @@
       <rPr>
         <sz val="14"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>聊天机器人</t>
@@ -3487,7 +3593,7 @@
       <rPr>
         <sz val="14"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>-017</t>
     </r>
@@ -3509,7 +3615,7 @@
       <rPr>
         <sz val="14"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>Chatbot</t>
     </r>
@@ -3517,6 +3623,7 @@
       <rPr>
         <sz val="14"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>聊天机器人</t>
@@ -3525,7 +3632,7 @@
       <rPr>
         <sz val="14"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>-018</t>
     </r>
@@ -3534,8 +3641,8 @@
     <t>音乐播放模块</t>
   </si>
   <si>
-    <t>1.输入"早"
-2.输入"想听薛之谦的演员"
+    <t>1.输入"早"_x000D_
+2.输入"想听薛之谦的演员"_x000D_
 3.打开音乐播放界面</t>
   </si>
   <si>
@@ -3546,7 +3653,7 @@
       <rPr>
         <sz val="14"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>Chatbot</t>
     </r>
@@ -3554,6 +3661,7 @@
       <rPr>
         <sz val="14"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>聊天机器人</t>
@@ -3562,7 +3670,7 @@
       <rPr>
         <sz val="14"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>-019</t>
     </r>
@@ -3585,7 +3693,7 @@
       <rPr>
         <sz val="14"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>Chatbot</t>
     </r>
@@ -3593,6 +3701,7 @@
       <rPr>
         <sz val="14"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>聊天机器人</t>
@@ -3601,7 +3710,7 @@
       <rPr>
         <sz val="14"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>-020</t>
     </r>
@@ -3621,7 +3730,7 @@
       <rPr>
         <sz val="14"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>Chatbot</t>
     </r>
@@ -3629,6 +3738,7 @@
       <rPr>
         <sz val="14"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>聊天机器人</t>
@@ -3637,7 +3747,7 @@
       <rPr>
         <sz val="14"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>-021</t>
     </r>
@@ -3652,22 +3762,67 @@
   <si>
     <t>1.跳转正常
 2.音乐播放时间随之更新</t>
+  </si>
+  <si>
+    <r>
+      <t>Chatbot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>聊天机器人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-022</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新保留信息</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>处于联网状态</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新后仍能播放音乐</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.播放时刷新
+2.暂停时刷新</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="_ \¥* #,##0.00_ ;_ \¥* \-#,##0.00_ ;_ \¥* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="179" formatCode="0.00;[Red]0.00"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="4">
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="_ \¥* #,##0.00_ ;_ \¥* \-#,##0.00_ ;_ \¥* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="180" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="59">
+  <fonts count="41">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -3678,62 +3833,69 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="13"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="13"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="16"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="16"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3741,258 +3903,118 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="8"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color indexed="56"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="20"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="14"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="13"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -4000,52 +4022,68 @@
       <sz val="16"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="7"/>
       <color indexed="62"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color indexed="62"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color indexed="62"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4094,194 +4132,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="28">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -4510,337 +4362,47 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="18" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="11" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="14" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4859,33 +4421,6 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="4" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="4" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="4" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="12" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4935,21 +4470,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4960,30 +4484,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="14" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -4992,40 +4500,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify"/>
@@ -5036,7 +4518,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -5057,73 +4539,164 @@
     <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="4" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="货币 2 2" xfId="9"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="10" builtinId="40"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8"/>
-    <cellStyle name="百分比" xfId="12" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
-    <cellStyle name="注释" xfId="14" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="15" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="16" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="17" builtinId="11"/>
-    <cellStyle name="标题" xfId="18" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="19" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="20" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="23" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="24" builtinId="44"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="计算" xfId="26" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="27" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="28" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="30" builtinId="24"/>
-    <cellStyle name="汇总" xfId="31" builtinId="25"/>
-    <cellStyle name="好" xfId="32" builtinId="26"/>
-    <cellStyle name="货币 3" xfId="33"/>
-    <cellStyle name="适中" xfId="34" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="36" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="37" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="38" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="39" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="40" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="41" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="42" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="43" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="44" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="45" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="46" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="47" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="48" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="49" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="50" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="51"/>
-    <cellStyle name="货币 2" xfId="52"/>
+    <cellStyle name="常规 2" xfId="4"/>
+    <cellStyle name="货币" xfId="1" builtinId="4"/>
+    <cellStyle name="货币 2" xfId="5"/>
+    <cellStyle name="货币 2 2" xfId="2"/>
+    <cellStyle name="货币 3" xfId="3"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -5137,7 +4710,7 @@
       <xdr:row>0</xdr:row>
       <xdr:rowOff>845820</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="Text Box 2"/>
         <xdr:cNvSpPr txBox="1">
@@ -5238,12 +4811,6 @@
             </a:rPr>
             <a:t>长期  </a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="sng" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="楷体_GB2312"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="ctr" rtl="0">
@@ -5312,12 +4879,6 @@
             </a:rPr>
             <a:t>日</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="sng" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="楷体_GB2312"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5344,7 +4905,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5675,283 +5236,284 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView topLeftCell="A115" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="59" customWidth="1"/>
-    <col min="2" max="2" width="9.625" style="59" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="59" customWidth="1"/>
-    <col min="4" max="4" width="19.875" style="59" customWidth="1"/>
-    <col min="5" max="5" width="19.125" style="59" customWidth="1"/>
-    <col min="6" max="6" width="7.625" style="59" customWidth="1"/>
-    <col min="7" max="7" width="8.625" style="59" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="59" customWidth="1"/>
-    <col min="9" max="32" width="9" style="59" customWidth="1"/>
-    <col min="33" max="16384" width="8.625" style="59"/>
+    <col min="1" max="1" width="11.59765625" style="33" customWidth="1"/>
+    <col min="2" max="2" width="9.59765625" style="33" customWidth="1"/>
+    <col min="3" max="3" width="12.59765625" style="33" customWidth="1"/>
+    <col min="4" max="4" width="19.8984375" style="33" customWidth="1"/>
+    <col min="5" max="5" width="19.09765625" style="33" customWidth="1"/>
+    <col min="6" max="6" width="7.59765625" style="33" customWidth="1"/>
+    <col min="7" max="7" width="8.59765625" style="33" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="33" customWidth="1"/>
+    <col min="9" max="32" width="9" style="33" customWidth="1"/>
+    <col min="33" max="16384" width="8.59765625" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" ht="73.5" customHeight="1" spans="1:7">
-      <c r="A1" s="82" t="s">
+    <row r="1" spans="1:8" ht="73.5" customHeight="1">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="84"/>
-    </row>
-    <row r="2" s="81" customFormat="1" ht="20.1" customHeight="1" spans="1:8">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="59"/>
-    </row>
-    <row r="3" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A3" s="84"/>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-    </row>
-    <row r="4" ht="48.75" customHeight="1" spans="1:7">
-      <c r="A4" s="86" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="44"/>
+    </row>
+    <row r="2" spans="1:8" s="43" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="33"/>
+    </row>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+    </row>
+    <row r="4" spans="1:8" ht="48.75" customHeight="1">
+      <c r="A4" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="84"/>
-    </row>
-    <row r="5" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A5" s="88"/>
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-    </row>
-    <row r="6" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A6" s="88"/>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-    </row>
-    <row r="7" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A7" s="88"/>
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-    </row>
-    <row r="8" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A8" s="88"/>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-    </row>
-    <row r="9" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A9" s="88"/>
-      <c r="B9" s="84"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-    </row>
-    <row r="10" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A10" s="88"/>
-      <c r="B10" s="84"/>
-      <c r="C10" s="84"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="84"/>
-    </row>
-    <row r="11" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A11" s="88"/>
-      <c r="B11" s="84"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84"/>
-    </row>
-    <row r="12" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A12" s="88"/>
-      <c r="B12" s="84"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="84"/>
-    </row>
-    <row r="13" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A13" s="88"/>
-      <c r="B13" s="84"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
-    </row>
-    <row r="14" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A14" s="88"/>
-      <c r="B14" s="84"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-    </row>
-    <row r="15" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A15" s="88"/>
-      <c r="B15" s="84"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="84"/>
-    </row>
-    <row r="16" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A16" s="88"/>
-      <c r="B16" s="84"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="84"/>
-    </row>
-    <row r="17" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A17" s="88"/>
-      <c r="B17" s="84"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="84"/>
-    </row>
-    <row r="18" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A18" s="88"/>
-      <c r="B18" s="84"/>
-      <c r="C18" s="89" t="s">
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="44"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="46"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="46"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+    </row>
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="46"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+    </row>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="46"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="46"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="46"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="46"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+    </row>
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="46"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="46"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="46"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+    </row>
+    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="46"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="46"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="46"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="46"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="90"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="84"/>
-    </row>
-    <row r="19" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A19" s="88"/>
-      <c r="B19" s="84"/>
-      <c r="C19" s="91" t="s">
+      <c r="D18" s="48"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+    </row>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="46"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="92"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="94"/>
-    </row>
-    <row r="20" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A20" s="88"/>
-      <c r="B20" s="84"/>
-      <c r="C20" s="95" t="s">
+      <c r="D19" s="50"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="52"/>
+    </row>
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="46"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="96"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="84"/>
-    </row>
-    <row r="21" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A21" s="88"/>
-      <c r="B21" s="84"/>
-      <c r="C21" s="97"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="84"/>
-    </row>
-    <row r="22" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A22" s="88"/>
-      <c r="B22" s="84"/>
-      <c r="C22" s="97"/>
-      <c r="D22" s="98"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="84"/>
-    </row>
-    <row r="23" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A23" s="88"/>
-      <c r="B23" s="84"/>
-      <c r="C23" s="97"/>
-      <c r="D23" s="98"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="84"/>
-    </row>
-    <row r="24" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A24" s="84"/>
-      <c r="B24" s="84"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="84"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+    </row>
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="46"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+    </row>
+    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="46"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+    </row>
+    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A23" s="46"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+    </row>
+    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A24" s="44"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="84"/>
-      <c r="B25" s="84"/>
-      <c r="C25" s="84"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="84"/>
-      <c r="F25" s="84"/>
-      <c r="G25" s="84"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="84"/>
-      <c r="B26" s="84"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="84"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="84"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A4:F4"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="40" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
@@ -5959,2155 +5521,2154 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="59" customWidth="1"/>
-    <col min="2" max="2" width="9.625" style="59" customWidth="1"/>
-    <col min="3" max="3" width="22.625" style="59" customWidth="1"/>
-    <col min="4" max="4" width="19.875" style="59" customWidth="1"/>
-    <col min="5" max="5" width="19.125" style="59" customWidth="1"/>
-    <col min="6" max="6" width="7.625" style="59" customWidth="1"/>
-    <col min="7" max="7" width="8.625" style="59" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="59" customWidth="1"/>
-    <col min="9" max="32" width="9" style="59" customWidth="1"/>
-    <col min="33" max="16384" width="8.625" style="59"/>
+    <col min="1" max="1" width="11.59765625" style="33" customWidth="1"/>
+    <col min="2" max="2" width="9.59765625" style="33" customWidth="1"/>
+    <col min="3" max="3" width="22.59765625" style="33" customWidth="1"/>
+    <col min="4" max="4" width="19.8984375" style="33" customWidth="1"/>
+    <col min="5" max="5" width="19.09765625" style="33" customWidth="1"/>
+    <col min="6" max="6" width="7.59765625" style="33" customWidth="1"/>
+    <col min="7" max="7" width="8.59765625" style="33" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="33" customWidth="1"/>
+    <col min="9" max="32" width="9" style="33" customWidth="1"/>
+    <col min="33" max="16384" width="8.59765625" style="33"/>
   </cols>
   <sheetData>
-    <row r="2" ht="14.25" spans="1:6">
-      <c r="A2" s="60" t="s">
+    <row r="2" spans="1:9" ht="16.2">
+      <c r="A2" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="62"/>
-    </row>
-    <row r="3" s="58" customFormat="1" spans="1:9">
-      <c r="A3" s="63" t="s">
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="63"/>
+    </row>
+    <row r="3" spans="1:9" s="32" customFormat="1" ht="16.2">
+      <c r="A3" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="66"/>
-      <c r="F3" s="64" t="s">
+      <c r="E3" s="65"/>
+      <c r="F3" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-    </row>
-    <row r="4" ht="20.1" customHeight="1" spans="1:6">
-      <c r="A4" s="67"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="72"/>
-    </row>
-    <row r="5" ht="20.1" customHeight="1" spans="1:6">
-      <c r="A5" s="67"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="72"/>
-    </row>
-    <row r="6" ht="20.1" customHeight="1" spans="1:6">
-      <c r="A6" s="67"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="72"/>
-    </row>
-    <row r="7" ht="20.1" customHeight="1" spans="1:6">
-      <c r="A7" s="67"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="72"/>
-    </row>
-    <row r="8" ht="54" customHeight="1" spans="1:6">
-      <c r="A8" s="67"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="72"/>
-    </row>
-    <row r="9" ht="20.1" customHeight="1" spans="1:6">
-      <c r="A9" s="75"/>
-      <c r="B9" s="76"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="72"/>
-    </row>
-    <row r="10" ht="20.1" customHeight="1" spans="1:6">
-      <c r="A10" s="75"/>
-      <c r="B10" s="76"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="72"/>
-    </row>
-    <row r="11" ht="20.1" customHeight="1" spans="1:6">
-      <c r="A11" s="75"/>
-      <c r="B11" s="76"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="72"/>
-    </row>
-    <row r="12" ht="20.1" customHeight="1" spans="1:6">
-      <c r="A12" s="75"/>
-      <c r="B12" s="76"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="72"/>
-    </row>
-    <row r="13" ht="20.1" customHeight="1" spans="1:6">
-      <c r="A13" s="75"/>
-      <c r="B13" s="76"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="72"/>
-    </row>
-    <row r="14" ht="20.1" customHeight="1" spans="1:6">
-      <c r="A14" s="75"/>
-      <c r="B14" s="76"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="72"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+    </row>
+    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="36"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="39"/>
+    </row>
+    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="36"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="39"/>
+    </row>
+    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="36"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="39"/>
+    </row>
+    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="36"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="39"/>
+    </row>
+    <row r="8" spans="1:9" ht="54" customHeight="1">
+      <c r="A8" s="36"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="39"/>
+    </row>
+    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="40"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="39"/>
+    </row>
+    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="40"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="39"/>
+    </row>
+    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="40"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="39"/>
+    </row>
+    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="40"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="39"/>
+    </row>
+    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="40"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="39"/>
+    </row>
+    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="40"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="40" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N122"/>
   <sheetViews>
     <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:IV65536"/>
+      <selection sqref="A1:IV65536"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="2" style="31" customWidth="1"/>
-    <col min="2" max="2" width="8.625" style="32" customWidth="1"/>
-    <col min="3" max="3" width="36.375" style="33" customWidth="1"/>
-    <col min="4" max="5" width="23.625" style="33" customWidth="1"/>
-    <col min="6" max="6" width="36.625" style="33" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="31" customWidth="1"/>
-    <col min="8" max="8" width="13.125" style="31" customWidth="1"/>
-    <col min="9" max="32" width="9" style="31" customWidth="1"/>
-    <col min="33" max="16384" width="8.625" style="31"/>
+    <col min="1" max="1" width="2" style="14" customWidth="1"/>
+    <col min="2" max="2" width="8.59765625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="36.3984375" style="16" customWidth="1"/>
+    <col min="4" max="5" width="23.59765625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="36.59765625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="9.59765625" style="14" customWidth="1"/>
+    <col min="8" max="8" width="13.09765625" style="14" customWidth="1"/>
+    <col min="9" max="32" width="9" style="14" customWidth="1"/>
+    <col min="33" max="16384" width="8.59765625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" ht="6.75" customHeight="1"/>
-    <row r="2" ht="25.5" customHeight="1" spans="2:8">
-      <c r="B2" s="34" t="s">
+    <row r="1" spans="2:14" ht="6.75" customHeight="1"/>
+    <row r="2" spans="2:14" ht="25.5" customHeight="1">
+      <c r="B2" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="36"/>
-    </row>
-    <row r="3" ht="26.25" customHeight="1" spans="2:14">
-      <c r="B3" s="37" t="s">
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="75"/>
+    </row>
+    <row r="3" spans="2:14" ht="26.25" customHeight="1">
+      <c r="B3" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-    </row>
-    <row r="4" ht="22.5" customHeight="1" spans="2:14">
-      <c r="B4" s="40"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="42"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-    </row>
-    <row r="5" ht="20.25" customHeight="1" spans="2:8">
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+    </row>
+    <row r="4" spans="2:14" ht="22.5" customHeight="1">
+      <c r="B4" s="79"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="81"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+    </row>
+    <row r="5" spans="2:14" ht="20.25" customHeight="1">
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
-      <c r="B6" s="43">
+    <row r="6" spans="2:14">
+      <c r="B6" s="17">
         <v>1</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-    </row>
-    <row r="7" ht="36" spans="2:8">
-      <c r="B7" s="45" t="s">
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+    </row>
+    <row r="7" spans="2:14" ht="36">
+      <c r="B7" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="46" t="s">
+      <c r="F7" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-    </row>
-    <row r="8" ht="36" spans="2:8">
-      <c r="B8" s="45" t="s">
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+    </row>
+    <row r="8" spans="2:14" ht="36">
+      <c r="B8" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="46" t="s">
+      <c r="D8" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="46" t="s">
+      <c r="E8" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="46" t="s">
+      <c r="F8" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-    </row>
-    <row r="9" ht="36" spans="2:8">
-      <c r="B9" s="45" t="s">
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" spans="2:14" ht="36">
+      <c r="B9" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="46" t="s">
+      <c r="F9" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-    </row>
-    <row r="10" ht="36" spans="2:8">
-      <c r="B10" s="45" t="s">
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+    </row>
+    <row r="10" spans="2:14" ht="36">
+      <c r="B10" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="46" t="s">
+      <c r="D10" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="46" t="s">
+      <c r="E10" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="46" t="s">
+      <c r="F10" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-    </row>
-    <row r="11" ht="24" spans="2:8">
-      <c r="B11" s="45" t="s">
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+    </row>
+    <row r="11" spans="2:14" ht="24">
+      <c r="B11" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="46" t="s">
+      <c r="D11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="46" t="s">
+      <c r="E11" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="46" t="s">
+      <c r="F11" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-    </row>
-    <row r="12" ht="23.25" customHeight="1" spans="2:8">
-      <c r="B12" s="45" t="s">
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+    </row>
+    <row r="12" spans="2:14" ht="23.25" customHeight="1">
+      <c r="B12" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="46" t="s">
+      <c r="D12" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="46" t="s">
+      <c r="E12" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="46" t="s">
+      <c r="F12" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-    </row>
-    <row r="13" ht="23.25" customHeight="1" spans="2:8">
-      <c r="B13" s="45" t="s">
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+    </row>
+    <row r="13" spans="2:14" ht="23.25" customHeight="1">
+      <c r="B13" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="46" t="s">
+      <c r="D13" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="46" t="s">
+      <c r="E13" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="46" t="s">
+      <c r="F13" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-    </row>
-    <row r="14" spans="2:8">
-      <c r="B14" s="47">
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="B14" s="21">
         <v>2</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-    </row>
-    <row r="15" ht="36" spans="2:8">
-      <c r="B15" s="45" t="s">
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+    </row>
+    <row r="15" spans="2:14" ht="36">
+      <c r="B15" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="46" t="s">
+      <c r="D15" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="46" t="s">
+      <c r="E15" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="46" t="s">
+      <c r="F15" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-    </row>
-    <row r="16" ht="36" spans="2:8">
-      <c r="B16" s="45" t="s">
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+    </row>
+    <row r="16" spans="2:14" ht="36">
+      <c r="B16" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="46" t="s">
+      <c r="D16" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="46" t="s">
+      <c r="E16" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="46" t="s">
+      <c r="F16" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-    </row>
-    <row r="17" ht="36" spans="2:8">
-      <c r="B17" s="45" t="s">
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+    </row>
+    <row r="17" spans="2:8" ht="36">
+      <c r="B17" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="46" t="s">
+      <c r="C17" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="46" t="s">
+      <c r="D17" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="46" t="s">
+      <c r="E17" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="46" t="s">
+      <c r="F17" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-    </row>
-    <row r="18" ht="36" spans="2:8">
-      <c r="B18" s="45" t="s">
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+    </row>
+    <row r="18" spans="2:8" ht="36">
+      <c r="B18" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="46" t="s">
+      <c r="C18" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="46" t="s">
+      <c r="D18" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="46" t="s">
+      <c r="E18" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="F18" s="46" t="s">
+      <c r="F18" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-    </row>
-    <row r="19" ht="36" spans="2:8">
-      <c r="B19" s="45" t="s">
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+    </row>
+    <row r="19" spans="2:8" ht="36">
+      <c r="B19" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="46" t="s">
+      <c r="D19" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="46" t="s">
+      <c r="E19" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="F19" s="46" t="s">
+      <c r="F19" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-    </row>
-    <row r="20" ht="36" spans="2:8">
-      <c r="B20" s="45" t="s">
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+    </row>
+    <row r="20" spans="2:8" ht="36">
+      <c r="B20" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="46" t="s">
+      <c r="C20" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="46" t="s">
+      <c r="D20" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="46" t="s">
+      <c r="E20" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="F20" s="46" t="s">
+      <c r="F20" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="47">
+      <c r="B21" s="21">
         <v>3</v>
       </c>
-      <c r="C21" s="48" t="s">
+      <c r="C21" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-    </row>
-    <row r="22" ht="36" spans="2:8">
-      <c r="B22" s="45" t="s">
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+    </row>
+    <row r="22" spans="2:8" ht="36">
+      <c r="B22" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="46" t="s">
+      <c r="C22" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="46" t="s">
+      <c r="D22" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="46" t="s">
+      <c r="E22" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="F22" s="46" t="s">
+      <c r="F22" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-    </row>
-    <row r="23" ht="36" spans="2:8">
-      <c r="B23" s="45" t="s">
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+    </row>
+    <row r="23" spans="2:8" ht="36">
+      <c r="B23" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="46" t="s">
+      <c r="C23" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="D23" s="46" t="s">
+      <c r="D23" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="E23" s="46" t="s">
+      <c r="E23" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="F23" s="46" t="s">
+      <c r="F23" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-    </row>
-    <row r="24" ht="36" spans="2:8">
-      <c r="B24" s="45" t="s">
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+    </row>
+    <row r="24" spans="2:8" ht="36">
+      <c r="B24" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="46" t="s">
+      <c r="C24" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="D24" s="46" t="s">
+      <c r="D24" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="E24" s="46" t="s">
+      <c r="E24" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="F24" s="46" t="s">
+      <c r="F24" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-    </row>
-    <row r="25" ht="36" spans="2:8">
-      <c r="B25" s="45" t="s">
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+    </row>
+    <row r="25" spans="2:8" ht="36">
+      <c r="B25" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C25" s="46" t="s">
+      <c r="C25" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="D25" s="46" t="s">
+      <c r="D25" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="E25" s="46" t="s">
+      <c r="E25" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="F25" s="46" t="s">
+      <c r="F25" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-    </row>
-    <row r="26" ht="36" spans="2:8">
-      <c r="B26" s="45" t="s">
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+    </row>
+    <row r="26" spans="2:8" ht="36">
+      <c r="B26" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="C26" s="46" t="s">
+      <c r="C26" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="D26" s="46" t="s">
+      <c r="D26" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="E26" s="46" t="s">
+      <c r="E26" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="F26" s="46" t="s">
+      <c r="F26" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-    </row>
-    <row r="27" ht="36" spans="2:8">
-      <c r="B27" s="45" t="s">
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+    </row>
+    <row r="27" spans="2:8" ht="36">
+      <c r="B27" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="C27" s="46" t="s">
+      <c r="C27" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="D27" s="46" t="s">
+      <c r="D27" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="E27" s="46" t="s">
+      <c r="E27" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="F27" s="46" t="s">
+      <c r="F27" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-    </row>
-    <row r="28" ht="48" spans="2:8">
-      <c r="B28" s="45" t="s">
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+    </row>
+    <row r="28" spans="2:8" ht="48">
+      <c r="B28" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="C28" s="46" t="s">
+      <c r="C28" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="D28" s="46" t="s">
+      <c r="D28" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="E28" s="46" t="s">
+      <c r="E28" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="F28" s="46" t="s">
+      <c r="F28" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-    </row>
-    <row r="29" ht="36" spans="2:8">
-      <c r="B29" s="45" t="s">
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+    </row>
+    <row r="29" spans="2:8" ht="36">
+      <c r="B29" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="C29" s="46" t="s">
+      <c r="C29" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="D29" s="46" t="s">
+      <c r="D29" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="E29" s="46" t="s">
+      <c r="E29" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="F29" s="46" t="s">
+      <c r="F29" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
     </row>
     <row r="30" spans="2:8">
-      <c r="B30" s="47">
+      <c r="B30" s="21">
         <v>4</v>
       </c>
-      <c r="C30" s="48" t="s">
+      <c r="C30" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-    </row>
-    <row r="31" ht="36" spans="2:8">
-      <c r="B31" s="45" t="s">
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+    </row>
+    <row r="31" spans="2:8" ht="36">
+      <c r="B31" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="46" t="s">
+      <c r="C31" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="46" t="s">
+      <c r="D31" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="E31" s="46" t="s">
+      <c r="E31" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="F31" s="46" t="s">
+      <c r="F31" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-    </row>
-    <row r="32" ht="36" spans="2:8">
-      <c r="B32" s="45" t="s">
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+    </row>
+    <row r="32" spans="2:8" ht="36">
+      <c r="B32" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="C32" s="46" t="s">
+      <c r="C32" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="D32" s="46" t="s">
+      <c r="D32" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="E32" s="46" t="s">
+      <c r="E32" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="F32" s="46" t="s">
+      <c r="F32" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-    </row>
-    <row r="33" ht="36" spans="2:8">
-      <c r="B33" s="45" t="s">
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+    </row>
+    <row r="33" spans="2:8" ht="36">
+      <c r="B33" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="C33" s="46" t="s">
+      <c r="C33" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="D33" s="46" t="s">
+      <c r="D33" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="E33" s="46" t="s">
+      <c r="E33" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="F33" s="46" t="s">
+      <c r="F33" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-    </row>
-    <row r="34" ht="48" spans="2:8">
-      <c r="B34" s="45" t="s">
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+    </row>
+    <row r="34" spans="2:8" ht="48">
+      <c r="B34" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="C34" s="46" t="s">
+      <c r="C34" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="D34" s="46" t="s">
+      <c r="D34" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="E34" s="46" t="s">
+      <c r="E34" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="F34" s="46" t="s">
+      <c r="F34" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
     </row>
     <row r="35" spans="2:8">
-      <c r="B35" s="47">
+      <c r="B35" s="21">
         <v>5</v>
       </c>
-      <c r="C35" s="48" t="s">
+      <c r="C35" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="48"/>
-    </row>
-    <row r="36" ht="36" spans="2:8">
-      <c r="B36" s="45" t="s">
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+    </row>
+    <row r="36" spans="2:8" ht="36">
+      <c r="B36" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="C36" s="46" t="s">
+      <c r="C36" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="46" t="s">
+      <c r="D36" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="E36" s="46" t="s">
+      <c r="E36" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="F36" s="46" t="s">
+      <c r="F36" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="G36" s="46"/>
-      <c r="H36" s="46"/>
-    </row>
-    <row r="37" ht="36" spans="2:8">
-      <c r="B37" s="45" t="s">
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+    </row>
+    <row r="37" spans="2:8" ht="36">
+      <c r="B37" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="C37" s="46" t="s">
+      <c r="C37" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="D37" s="46" t="s">
+      <c r="D37" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="E37" s="46" t="s">
+      <c r="E37" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="F37" s="46" t="s">
+      <c r="F37" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="G37" s="46"/>
-      <c r="H37" s="46"/>
-    </row>
-    <row r="38" ht="36" spans="2:8">
-      <c r="B38" s="45" t="s">
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+    </row>
+    <row r="38" spans="2:8" ht="36">
+      <c r="B38" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="C38" s="46" t="s">
+      <c r="C38" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="D38" s="46" t="s">
+      <c r="D38" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="E38" s="46" t="s">
+      <c r="E38" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="F38" s="46" t="s">
+      <c r="F38" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="G38" s="46"/>
-      <c r="H38" s="46"/>
-    </row>
-    <row r="39" ht="36" spans="2:8">
-      <c r="B39" s="45" t="s">
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+    </row>
+    <row r="39" spans="2:8" ht="36">
+      <c r="B39" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="C39" s="46" t="s">
+      <c r="C39" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D39" s="46" t="s">
+      <c r="D39" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="E39" s="46" t="s">
+      <c r="E39" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="F39" s="46" t="s">
+      <c r="F39" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="G39" s="46"/>
-      <c r="H39" s="46"/>
-    </row>
-    <row r="40" ht="48" spans="2:8">
-      <c r="B40" s="45" t="s">
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+    </row>
+    <row r="40" spans="2:8" ht="48">
+      <c r="B40" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="C40" s="46" t="s">
+      <c r="C40" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="D40" s="46" t="s">
+      <c r="D40" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="E40" s="46" t="s">
+      <c r="E40" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="F40" s="46" t="s">
+      <c r="F40" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="G40" s="46"/>
-      <c r="H40" s="46"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
     </row>
     <row r="41" spans="2:8">
-      <c r="B41" s="47">
+      <c r="B41" s="21">
         <v>6</v>
       </c>
-      <c r="C41" s="48" t="s">
+      <c r="C41" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="48"/>
-    </row>
-    <row r="42" ht="36" spans="2:8">
-      <c r="B42" s="45" t="s">
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+    </row>
+    <row r="42" spans="2:8" ht="36">
+      <c r="B42" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="C42" s="46" t="s">
+      <c r="C42" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="46" t="s">
+      <c r="D42" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="E42" s="46" t="s">
+      <c r="E42" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="F42" s="46" t="s">
+      <c r="F42" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="G42" s="46"/>
-      <c r="H42" s="46"/>
-    </row>
-    <row r="43" ht="36" spans="2:8">
-      <c r="B43" s="45" t="s">
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+    </row>
+    <row r="43" spans="2:8" ht="36">
+      <c r="B43" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="C43" s="46" t="s">
+      <c r="C43" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="D43" s="46" t="s">
+      <c r="D43" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="E43" s="46" t="s">
+      <c r="E43" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="F43" s="46" t="s">
+      <c r="F43" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="G43" s="46"/>
-      <c r="H43" s="46"/>
-    </row>
-    <row r="44" ht="36" spans="2:8">
-      <c r="B44" s="45" t="s">
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+    </row>
+    <row r="44" spans="2:8" ht="36">
+      <c r="B44" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="C44" s="46" t="s">
+      <c r="C44" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="D44" s="46" t="s">
+      <c r="D44" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="E44" s="46" t="s">
+      <c r="E44" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="F44" s="46" t="s">
+      <c r="F44" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="G44" s="46"/>
-      <c r="H44" s="46"/>
-    </row>
-    <row r="45" ht="36" spans="2:8">
-      <c r="B45" s="45" t="s">
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+    </row>
+    <row r="45" spans="2:8" ht="36">
+      <c r="B45" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="C45" s="46" t="s">
+      <c r="C45" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="D45" s="46" t="s">
+      <c r="D45" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="E45" s="46" t="s">
+      <c r="E45" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="F45" s="46" t="s">
+      <c r="F45" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="G45" s="46"/>
-      <c r="H45" s="46"/>
-    </row>
-    <row r="46" ht="36" spans="2:8">
-      <c r="B46" s="45" t="s">
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+    </row>
+    <row r="46" spans="2:8" ht="36">
+      <c r="B46" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="C46" s="46" t="s">
+      <c r="C46" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="D46" s="46" t="s">
+      <c r="D46" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="E46" s="46" t="s">
+      <c r="E46" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="F46" s="46" t="s">
+      <c r="F46" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="G46" s="46"/>
-      <c r="H46" s="46"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
     </row>
     <row r="47" spans="2:8">
-      <c r="B47" s="47">
+      <c r="B47" s="21">
         <v>7</v>
       </c>
-      <c r="C47" s="48" t="s">
+      <c r="C47" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="D47" s="48"/>
-      <c r="E47" s="48"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="48"/>
-      <c r="H47" s="48"/>
-    </row>
-    <row r="48" ht="36" spans="2:8">
-      <c r="B48" s="45" t="s">
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+    </row>
+    <row r="48" spans="2:8" ht="36">
+      <c r="B48" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="C48" s="46" t="s">
+      <c r="C48" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="46" t="s">
+      <c r="D48" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="E48" s="46" t="s">
+      <c r="E48" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="F48" s="46" t="s">
+      <c r="F48" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="G48" s="46"/>
-      <c r="H48" s="46"/>
-    </row>
-    <row r="49" ht="36" spans="2:8">
-      <c r="B49" s="45" t="s">
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+    </row>
+    <row r="49" spans="2:8" ht="36">
+      <c r="B49" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="C49" s="46" t="s">
+      <c r="C49" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="D49" s="46" t="s">
+      <c r="D49" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="E49" s="46" t="s">
+      <c r="E49" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="F49" s="46" t="s">
+      <c r="F49" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="G49" s="46"/>
-      <c r="H49" s="46"/>
-    </row>
-    <row r="50" ht="48" spans="2:8">
-      <c r="B50" s="45" t="s">
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+    </row>
+    <row r="50" spans="2:8" ht="48">
+      <c r="B50" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="C50" s="46" t="s">
+      <c r="C50" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="D50" s="46" t="s">
+      <c r="D50" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="E50" s="46" t="s">
+      <c r="E50" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="F50" s="46" t="s">
+      <c r="F50" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="G50" s="46"/>
-      <c r="H50" s="46"/>
-    </row>
-    <row r="51" ht="48" spans="2:8">
-      <c r="B51" s="45" t="s">
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+    </row>
+    <row r="51" spans="2:8" ht="48">
+      <c r="B51" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="C51" s="46" t="s">
+      <c r="C51" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="D51" s="46" t="s">
+      <c r="D51" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="E51" s="46" t="s">
+      <c r="E51" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="F51" s="46" t="s">
+      <c r="F51" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="G51" s="46"/>
-      <c r="H51" s="46"/>
-    </row>
-    <row r="52" ht="36" spans="2:8">
-      <c r="B52" s="45" t="s">
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+    </row>
+    <row r="52" spans="2:8" ht="36">
+      <c r="B52" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="C52" s="46" t="s">
+      <c r="C52" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="D52" s="46" t="s">
+      <c r="D52" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="E52" s="46" t="s">
+      <c r="E52" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="F52" s="46" t="s">
+      <c r="F52" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="G52" s="46"/>
-      <c r="H52" s="46"/>
-    </row>
-    <row r="53" ht="36" spans="2:8">
-      <c r="B53" s="45" t="s">
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+    </row>
+    <row r="53" spans="2:8" ht="36">
+      <c r="B53" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="C53" s="46" t="s">
+      <c r="C53" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="D53" s="46" t="s">
+      <c r="D53" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="E53" s="46" t="s">
+      <c r="E53" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="F53" s="46" t="s">
+      <c r="F53" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="G53" s="46"/>
-      <c r="H53" s="46"/>
-    </row>
-    <row r="54" ht="60" spans="2:8">
-      <c r="B54" s="45" t="s">
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+    </row>
+    <row r="54" spans="2:8" ht="60">
+      <c r="B54" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="C54" s="46" t="s">
+      <c r="C54" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="D54" s="46" t="s">
+      <c r="D54" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="E54" s="46" t="s">
+      <c r="E54" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="F54" s="46" t="s">
+      <c r="F54" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="G54" s="46"/>
-      <c r="H54" s="46"/>
-    </row>
-    <row r="55" ht="60" spans="2:8">
-      <c r="B55" s="45" t="s">
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+    </row>
+    <row r="55" spans="2:8" ht="60">
+      <c r="B55" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="C55" s="46" t="s">
+      <c r="C55" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="D55" s="46" t="s">
+      <c r="D55" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="E55" s="46" t="s">
+      <c r="E55" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="F55" s="46" t="s">
+      <c r="F55" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="G55" s="46"/>
-      <c r="H55" s="46"/>
-    </row>
-    <row r="56" ht="48" spans="2:8">
-      <c r="B56" s="45" t="s">
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
+    </row>
+    <row r="56" spans="2:8" ht="48">
+      <c r="B56" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="C56" s="46" t="s">
+      <c r="C56" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="D56" s="46" t="s">
+      <c r="D56" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="E56" s="46" t="s">
+      <c r="E56" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="F56" s="46" t="s">
+      <c r="F56" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="G56" s="46"/>
-      <c r="H56" s="46"/>
-    </row>
-    <row r="57" ht="48" spans="2:8">
-      <c r="B57" s="45" t="s">
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+    </row>
+    <row r="57" spans="2:8" ht="48">
+      <c r="B57" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="C57" s="46" t="s">
+      <c r="C57" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="D57" s="46" t="s">
+      <c r="D57" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="E57" s="46" t="s">
+      <c r="E57" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="F57" s="46" t="s">
+      <c r="F57" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="G57" s="46"/>
-      <c r="H57" s="46"/>
-    </row>
-    <row r="58" ht="36" spans="2:8">
-      <c r="B58" s="45" t="s">
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
+    </row>
+    <row r="58" spans="2:8" ht="36">
+      <c r="B58" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="C58" s="46" t="s">
+      <c r="C58" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="D58" s="46" t="s">
+      <c r="D58" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="E58" s="46" t="s">
+      <c r="E58" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="F58" s="46" t="s">
+      <c r="F58" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="G58" s="46"/>
-      <c r="H58" s="46"/>
-    </row>
-    <row r="59" ht="48" spans="2:8">
-      <c r="B59" s="45" t="s">
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
+    </row>
+    <row r="59" spans="2:8" ht="48">
+      <c r="B59" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="C59" s="46" t="s">
+      <c r="C59" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="D59" s="46" t="s">
+      <c r="D59" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="E59" s="46" t="s">
+      <c r="E59" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="F59" s="46" t="s">
+      <c r="F59" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="G59" s="46"/>
-      <c r="H59" s="46"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="20"/>
     </row>
     <row r="60" spans="2:8">
-      <c r="B60" s="49">
+      <c r="B60" s="23">
         <v>8</v>
       </c>
-      <c r="C60" s="48" t="s">
+      <c r="C60" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="D60" s="48"/>
-      <c r="E60" s="48"/>
-      <c r="F60" s="48"/>
-      <c r="G60" s="48"/>
-      <c r="H60" s="48"/>
-    </row>
-    <row r="61" ht="36" spans="2:8">
-      <c r="B61" s="45" t="s">
+      <c r="D60" s="22"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="22"/>
+    </row>
+    <row r="61" spans="2:8" ht="36">
+      <c r="B61" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="C61" s="46" t="s">
+      <c r="C61" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="D61" s="46" t="s">
+      <c r="D61" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="E61" s="46" t="s">
+      <c r="E61" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="F61" s="46" t="s">
+      <c r="F61" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="G61" s="46"/>
-      <c r="H61" s="46"/>
-    </row>
-    <row r="62" ht="36" spans="2:8">
-      <c r="B62" s="45" t="s">
+      <c r="G61" s="20"/>
+      <c r="H61" s="20"/>
+    </row>
+    <row r="62" spans="2:8" ht="36">
+      <c r="B62" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="C62" s="46" t="s">
+      <c r="C62" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="D62" s="46" t="s">
+      <c r="D62" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="E62" s="46" t="s">
+      <c r="E62" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="F62" s="46" t="s">
+      <c r="F62" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="G62" s="46"/>
-      <c r="H62" s="46"/>
-    </row>
-    <row r="63" ht="36" spans="2:8">
-      <c r="B63" s="45" t="s">
+      <c r="G62" s="20"/>
+      <c r="H62" s="20"/>
+    </row>
+    <row r="63" spans="2:8" ht="36">
+      <c r="B63" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="C63" s="46" t="s">
+      <c r="C63" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="D63" s="46" t="s">
+      <c r="D63" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="E63" s="46" t="s">
+      <c r="E63" s="20" t="s">
         <v>227</v>
       </c>
-      <c r="F63" s="46" t="s">
+      <c r="F63" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="G63" s="46"/>
-      <c r="H63" s="46"/>
-    </row>
-    <row r="64" ht="36" spans="2:8">
-      <c r="B64" s="45" t="s">
+      <c r="G63" s="20"/>
+      <c r="H63" s="20"/>
+    </row>
+    <row r="64" spans="2:8" ht="36">
+      <c r="B64" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="C64" s="46" t="s">
+      <c r="C64" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="D64" s="46" t="s">
+      <c r="D64" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="E64" s="46" t="s">
+      <c r="E64" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="F64" s="46" t="s">
+      <c r="F64" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="G64" s="46"/>
-      <c r="H64" s="46"/>
-    </row>
-    <row r="65" ht="48" spans="2:8">
-      <c r="B65" s="45" t="s">
+      <c r="G64" s="20"/>
+      <c r="H64" s="20"/>
+    </row>
+    <row r="65" spans="2:8" ht="48">
+      <c r="B65" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="C65" s="46" t="s">
+      <c r="C65" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="D65" s="46" t="s">
+      <c r="D65" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="E65" s="46" t="s">
+      <c r="E65" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="F65" s="46" t="s">
+      <c r="F65" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="G65" s="46"/>
-      <c r="H65" s="46"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="20"/>
     </row>
     <row r="66" spans="2:8">
-      <c r="B66" s="47">
+      <c r="B66" s="21">
         <v>9</v>
       </c>
-      <c r="C66" s="48" t="s">
+      <c r="C66" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="D66" s="48"/>
-      <c r="E66" s="48"/>
-      <c r="F66" s="48"/>
-      <c r="G66" s="48"/>
-      <c r="H66" s="48"/>
-    </row>
-    <row r="67" ht="60" spans="2:8">
-      <c r="B67" s="45" t="s">
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="22"/>
+    </row>
+    <row r="67" spans="2:8" ht="60">
+      <c r="B67" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="C67" s="46" t="s">
+      <c r="C67" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="D67" s="46" t="s">
+      <c r="D67" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="E67" s="46" t="s">
+      <c r="E67" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="F67" s="46" t="s">
+      <c r="F67" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="G67" s="46"/>
-      <c r="H67" s="46"/>
-    </row>
-    <row r="68" ht="48" spans="2:8">
-      <c r="B68" s="45" t="s">
+      <c r="G67" s="20"/>
+      <c r="H67" s="20"/>
+    </row>
+    <row r="68" spans="2:8" ht="48">
+      <c r="B68" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="C68" s="46" t="s">
+      <c r="C68" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="D68" s="46" t="s">
+      <c r="D68" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="E68" s="46" t="s">
+      <c r="E68" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="F68" s="46" t="s">
+      <c r="F68" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="G68" s="46"/>
-      <c r="H68" s="46"/>
-    </row>
-    <row r="69" ht="48" spans="2:8">
-      <c r="B69" s="45" t="s">
+      <c r="G68" s="20"/>
+      <c r="H68" s="20"/>
+    </row>
+    <row r="69" spans="2:8" ht="48">
+      <c r="B69" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="C69" s="46" t="s">
+      <c r="C69" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="D69" s="46" t="s">
+      <c r="D69" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="E69" s="46" t="s">
+      <c r="E69" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="F69" s="46" t="s">
+      <c r="F69" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="G69" s="46"/>
-      <c r="H69" s="46"/>
-    </row>
-    <row r="70" ht="48" spans="2:8">
-      <c r="B70" s="45" t="s">
+      <c r="G69" s="20"/>
+      <c r="H69" s="20"/>
+    </row>
+    <row r="70" spans="2:8" ht="48">
+      <c r="B70" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="C70" s="46" t="s">
+      <c r="C70" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="D70" s="46" t="s">
+      <c r="D70" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="E70" s="46" t="s">
+      <c r="E70" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="F70" s="46" t="s">
+      <c r="F70" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="G70" s="46"/>
-      <c r="H70" s="46"/>
-    </row>
-    <row r="71" ht="48" spans="2:8">
-      <c r="B71" s="45" t="s">
+      <c r="G70" s="20"/>
+      <c r="H70" s="20"/>
+    </row>
+    <row r="71" spans="2:8" ht="48">
+      <c r="B71" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="C71" s="46" t="s">
+      <c r="C71" s="20" t="s">
         <v>256</v>
       </c>
-      <c r="D71" s="46" t="s">
+      <c r="D71" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="E71" s="46" t="s">
+      <c r="E71" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="F71" s="46" t="s">
+      <c r="F71" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="G71" s="46"/>
-      <c r="H71" s="46"/>
-    </row>
-    <row r="72" ht="48" spans="2:8">
-      <c r="B72" s="45" t="s">
+      <c r="G71" s="20"/>
+      <c r="H71" s="20"/>
+    </row>
+    <row r="72" spans="2:8" ht="48">
+      <c r="B72" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="C72" s="46" t="s">
+      <c r="C72" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="D72" s="46" t="s">
+      <c r="D72" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="E72" s="46" t="s">
+      <c r="E72" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="F72" s="46" t="s">
+      <c r="F72" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="G72" s="46"/>
-      <c r="H72" s="46"/>
-    </row>
-    <row r="73" ht="36" spans="2:8">
-      <c r="B73" s="45" t="s">
+      <c r="G72" s="20"/>
+      <c r="H72" s="20"/>
+    </row>
+    <row r="73" spans="2:8" ht="36">
+      <c r="B73" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="C73" s="46" t="s">
+      <c r="C73" s="20" t="s">
         <v>263</v>
       </c>
-      <c r="D73" s="46" t="s">
+      <c r="D73" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="E73" s="46" t="s">
+      <c r="E73" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="F73" s="46" t="s">
+      <c r="F73" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="G73" s="46"/>
-      <c r="H73" s="46"/>
-    </row>
-    <row r="74" ht="36" spans="2:8">
-      <c r="B74" s="45" t="s">
+      <c r="G73" s="20"/>
+      <c r="H73" s="20"/>
+    </row>
+    <row r="74" spans="2:8" ht="36">
+      <c r="B74" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="C74" s="46" t="s">
+      <c r="C74" s="20" t="s">
         <v>267</v>
       </c>
-      <c r="D74" s="46" t="s">
+      <c r="D74" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="E74" s="46" t="s">
+      <c r="E74" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="F74" s="46" t="s">
+      <c r="F74" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="G74" s="46"/>
-      <c r="H74" s="46"/>
-    </row>
-    <row r="75" ht="48" spans="2:8">
-      <c r="B75" s="45" t="s">
+      <c r="G74" s="20"/>
+      <c r="H74" s="20"/>
+    </row>
+    <row r="75" spans="2:8" ht="48">
+      <c r="B75" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="C75" s="46" t="s">
+      <c r="C75" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="D75" s="46" t="s">
+      <c r="D75" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="E75" s="46" t="s">
+      <c r="E75" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="F75" s="46" t="s">
+      <c r="F75" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="G75" s="46"/>
-      <c r="H75" s="46"/>
+      <c r="G75" s="20"/>
+      <c r="H75" s="20"/>
     </row>
     <row r="76" spans="2:8">
-      <c r="B76" s="47">
+      <c r="B76" s="21">
         <v>10</v>
       </c>
-      <c r="C76" s="48" t="s">
+      <c r="C76" s="22" t="s">
         <v>273</v>
       </c>
-      <c r="D76" s="48"/>
-      <c r="E76" s="48"/>
-      <c r="F76" s="48"/>
-      <c r="G76" s="48"/>
-      <c r="H76" s="48"/>
-    </row>
-    <row r="77" ht="48" spans="2:8">
-      <c r="B77" s="45" t="s">
+      <c r="D76" s="22"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="22"/>
+    </row>
+    <row r="77" spans="2:8" ht="48">
+      <c r="B77" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="C77" s="46" t="s">
+      <c r="C77" s="20" t="s">
         <v>275</v>
       </c>
-      <c r="D77" s="46" t="s">
+      <c r="D77" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="E77" s="46" t="s">
+      <c r="E77" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="F77" s="46" t="s">
+      <c r="F77" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="G77" s="46"/>
-      <c r="H77" s="46"/>
-    </row>
-    <row r="78" ht="48" spans="2:8">
-      <c r="B78" s="45" t="s">
+      <c r="G77" s="20"/>
+      <c r="H77" s="20"/>
+    </row>
+    <row r="78" spans="2:8" ht="48">
+      <c r="B78" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="C78" s="46" t="s">
+      <c r="C78" s="20" t="s">
         <v>280</v>
       </c>
-      <c r="D78" s="46" t="s">
+      <c r="D78" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="E78" s="46" t="s">
+      <c r="E78" s="20" t="s">
         <v>281</v>
       </c>
-      <c r="F78" s="46" t="s">
+      <c r="F78" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="G78" s="46"/>
-      <c r="H78" s="46"/>
-    </row>
-    <row r="79" ht="48" spans="2:8">
-      <c r="B79" s="45" t="s">
+      <c r="G78" s="20"/>
+      <c r="H78" s="20"/>
+    </row>
+    <row r="79" spans="2:8" ht="48">
+      <c r="B79" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="C79" s="46" t="s">
+      <c r="C79" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="D79" s="46" t="s">
+      <c r="D79" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="E79" s="46" t="s">
+      <c r="E79" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="F79" s="46" t="s">
+      <c r="F79" s="20" t="s">
         <v>286</v>
       </c>
-      <c r="G79" s="46"/>
-      <c r="H79" s="46"/>
-    </row>
-    <row r="80" ht="48" spans="2:8">
-      <c r="B80" s="45" t="s">
+      <c r="G79" s="20"/>
+      <c r="H79" s="20"/>
+    </row>
+    <row r="80" spans="2:8" ht="48">
+      <c r="B80" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="C80" s="46" t="s">
+      <c r="C80" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="D80" s="46" t="s">
+      <c r="D80" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="E80" s="46" t="s">
+      <c r="E80" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="F80" s="46" t="s">
+      <c r="F80" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="G80" s="46"/>
-      <c r="H80" s="46"/>
+      <c r="G80" s="20"/>
+      <c r="H80" s="20"/>
     </row>
     <row r="81" spans="2:8">
-      <c r="B81" s="52">
+      <c r="B81" s="26">
         <v>11</v>
       </c>
-      <c r="C81" s="53" t="s">
+      <c r="C81" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="D81" s="53"/>
-      <c r="E81" s="53"/>
-      <c r="F81" s="53"/>
-      <c r="G81" s="53"/>
-      <c r="H81" s="53"/>
-    </row>
-    <row r="82" ht="36" spans="2:8">
-      <c r="B82" s="45" t="s">
+      <c r="D81" s="27"/>
+      <c r="E81" s="27"/>
+      <c r="F81" s="27"/>
+      <c r="G81" s="27"/>
+      <c r="H81" s="27"/>
+    </row>
+    <row r="82" spans="2:8" ht="36">
+      <c r="B82" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="C82" s="46" t="s">
+      <c r="C82" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="D82" s="46" t="s">
+      <c r="D82" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="E82" s="46" t="s">
+      <c r="E82" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="F82" s="46" t="s">
+      <c r="F82" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="G82" s="46"/>
-      <c r="H82" s="46"/>
-    </row>
-    <row r="83" ht="36" spans="2:8">
-      <c r="B83" s="45" t="s">
+      <c r="G82" s="20"/>
+      <c r="H82" s="20"/>
+    </row>
+    <row r="83" spans="2:8" ht="36">
+      <c r="B83" s="19" t="s">
         <v>297</v>
       </c>
-      <c r="C83" s="46" t="s">
+      <c r="C83" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="D83" s="46" t="s">
+      <c r="D83" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="E83" s="46" t="s">
+      <c r="E83" s="20" t="s">
         <v>299</v>
       </c>
-      <c r="F83" s="46" t="s">
+      <c r="F83" s="20" t="s">
         <v>300</v>
       </c>
-      <c r="G83" s="46"/>
-      <c r="H83" s="46"/>
-    </row>
-    <row r="84" ht="36" spans="2:8">
-      <c r="B84" s="45" t="s">
+      <c r="G83" s="20"/>
+      <c r="H83" s="20"/>
+    </row>
+    <row r="84" spans="2:8" ht="36">
+      <c r="B84" s="19" t="s">
         <v>301</v>
       </c>
-      <c r="C84" s="46" t="s">
+      <c r="C84" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="D84" s="46" t="s">
+      <c r="D84" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="E84" s="46" t="s">
+      <c r="E84" s="20" t="s">
         <v>303</v>
       </c>
-      <c r="F84" s="46" t="s">
+      <c r="F84" s="20" t="s">
         <v>304</v>
       </c>
-      <c r="G84" s="46"/>
-      <c r="H84" s="46"/>
-    </row>
-    <row r="85" ht="36" spans="2:8">
-      <c r="B85" s="45" t="s">
+      <c r="G84" s="20"/>
+      <c r="H84" s="20"/>
+    </row>
+    <row r="85" spans="2:8" ht="36">
+      <c r="B85" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="C85" s="54" t="s">
+      <c r="C85" s="28" t="s">
         <v>306</v>
       </c>
-      <c r="D85" s="46" t="s">
+      <c r="D85" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="E85" s="46" t="s">
+      <c r="E85" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="F85" s="46" t="s">
+      <c r="F85" s="20" t="s">
         <v>308</v>
       </c>
-      <c r="G85" s="46"/>
-      <c r="H85" s="46"/>
-    </row>
-    <row r="86" spans="2:8">
-      <c r="B86" s="47">
+      <c r="G85" s="20"/>
+      <c r="H85" s="20"/>
+    </row>
+    <row r="86" spans="2:8" ht="14.4">
+      <c r="B86" s="21">
         <v>12</v>
       </c>
-      <c r="C86" s="55" t="s">
+      <c r="C86" s="29" t="s">
         <v>309</v>
       </c>
-      <c r="D86" s="55"/>
-      <c r="E86" s="55"/>
-      <c r="F86" s="55"/>
-      <c r="G86" s="55"/>
-      <c r="H86" s="55"/>
-    </row>
-    <row r="87" ht="51" spans="2:8">
-      <c r="B87" s="45" t="s">
+      <c r="D86" s="29"/>
+      <c r="E86" s="29"/>
+      <c r="F86" s="29"/>
+      <c r="G86" s="29"/>
+      <c r="H86" s="29"/>
+    </row>
+    <row r="87" spans="2:8" ht="57.6">
+      <c r="B87" s="19" t="s">
         <v>310</v>
       </c>
-      <c r="C87" s="54" t="s">
+      <c r="C87" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="D87" s="54" t="s">
+      <c r="D87" s="28" t="s">
         <v>312</v>
       </c>
-      <c r="E87" s="56" t="s">
+      <c r="E87" s="30" t="s">
         <v>313</v>
       </c>
-      <c r="F87" s="54" t="s">
+      <c r="F87" s="28" t="s">
         <v>314</v>
       </c>
-      <c r="G87" s="54"/>
-      <c r="H87" s="54"/>
-    </row>
-    <row r="88" ht="51" spans="2:8">
-      <c r="B88" s="45" t="s">
+      <c r="G87" s="28"/>
+      <c r="H87" s="28"/>
+    </row>
+    <row r="88" spans="2:8" ht="57.6">
+      <c r="B88" s="19" t="s">
         <v>315</v>
       </c>
-      <c r="C88" s="54" t="s">
+      <c r="C88" s="28" t="s">
         <v>316</v>
       </c>
-      <c r="D88" s="54" t="s">
+      <c r="D88" s="28" t="s">
         <v>312</v>
       </c>
-      <c r="E88" s="56" t="s">
+      <c r="E88" s="30" t="s">
         <v>317</v>
       </c>
-      <c r="F88" s="54" t="s">
+      <c r="F88" s="28" t="s">
         <v>318</v>
       </c>
-      <c r="G88" s="54"/>
-      <c r="H88" s="54"/>
-    </row>
-    <row r="89" ht="51" spans="2:8">
-      <c r="B89" s="45" t="s">
+      <c r="G88" s="28"/>
+      <c r="H88" s="28"/>
+    </row>
+    <row r="89" spans="2:8" ht="57.6">
+      <c r="B89" s="19" t="s">
         <v>319</v>
       </c>
-      <c r="C89" s="54" t="s">
+      <c r="C89" s="28" t="s">
         <v>320</v>
       </c>
-      <c r="D89" s="54" t="s">
+      <c r="D89" s="28" t="s">
         <v>312</v>
       </c>
-      <c r="E89" s="56" t="s">
+      <c r="E89" s="30" t="s">
         <v>321</v>
       </c>
-      <c r="F89" s="56" t="s">
+      <c r="F89" s="30" t="s">
         <v>322</v>
       </c>
-      <c r="G89" s="56"/>
-      <c r="H89" s="56"/>
-    </row>
-    <row r="90" ht="51" spans="2:8">
-      <c r="B90" s="45" t="s">
+      <c r="G89" s="30"/>
+      <c r="H89" s="30"/>
+    </row>
+    <row r="90" spans="2:8" ht="57.6">
+      <c r="B90" s="19" t="s">
         <v>323</v>
       </c>
-      <c r="C90" s="54" t="s">
+      <c r="C90" s="28" t="s">
         <v>324</v>
       </c>
-      <c r="D90" s="54" t="s">
+      <c r="D90" s="28" t="s">
         <v>312</v>
       </c>
-      <c r="E90" s="56" t="s">
+      <c r="E90" s="30" t="s">
         <v>325</v>
       </c>
-      <c r="F90" s="54" t="s">
+      <c r="F90" s="28" t="s">
         <v>326</v>
       </c>
-      <c r="G90" s="54"/>
-      <c r="H90" s="54"/>
-    </row>
-    <row r="91" ht="51" spans="2:8">
-      <c r="B91" s="45" t="s">
+      <c r="G90" s="28"/>
+      <c r="H90" s="28"/>
+    </row>
+    <row r="91" spans="2:8" ht="57.6">
+      <c r="B91" s="19" t="s">
         <v>327</v>
       </c>
-      <c r="C91" s="54" t="s">
+      <c r="C91" s="28" t="s">
         <v>328</v>
       </c>
-      <c r="D91" s="54" t="s">
+      <c r="D91" s="28" t="s">
         <v>312</v>
       </c>
-      <c r="E91" s="56" t="s">
+      <c r="E91" s="30" t="s">
         <v>329</v>
       </c>
-      <c r="F91" s="54" t="s">
+      <c r="F91" s="28" t="s">
         <v>330</v>
       </c>
-      <c r="G91" s="54"/>
-      <c r="H91" s="54"/>
-    </row>
-    <row r="92" ht="51" spans="2:8">
-      <c r="B92" s="45" t="s">
+      <c r="G91" s="28"/>
+      <c r="H91" s="28"/>
+    </row>
+    <row r="92" spans="2:8" ht="57.6">
+      <c r="B92" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="C92" s="54" t="s">
+      <c r="C92" s="28" t="s">
         <v>332</v>
       </c>
-      <c r="D92" s="54" t="s">
+      <c r="D92" s="28" t="s">
         <v>312</v>
       </c>
-      <c r="E92" s="56" t="s">
+      <c r="E92" s="30" t="s">
         <v>333</v>
       </c>
-      <c r="F92" s="54" t="s">
+      <c r="F92" s="28" t="s">
         <v>334</v>
       </c>
-      <c r="G92" s="54"/>
-      <c r="H92" s="54"/>
-    </row>
-    <row r="93" ht="51" spans="2:8">
-      <c r="B93" s="45" t="s">
+      <c r="G92" s="28"/>
+      <c r="H92" s="28"/>
+    </row>
+    <row r="93" spans="2:8" ht="57.6">
+      <c r="B93" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="C93" s="54" t="s">
+      <c r="C93" s="28" t="s">
         <v>336</v>
       </c>
-      <c r="D93" s="54" t="s">
+      <c r="D93" s="28" t="s">
         <v>312</v>
       </c>
-      <c r="E93" s="56" t="s">
+      <c r="E93" s="30" t="s">
         <v>333</v>
       </c>
-      <c r="F93" s="54" t="s">
+      <c r="F93" s="28" t="s">
         <v>334</v>
       </c>
-      <c r="G93" s="54"/>
-      <c r="H93" s="54"/>
-    </row>
-    <row r="94" ht="51" spans="2:8">
-      <c r="B94" s="45" t="s">
+      <c r="G93" s="28"/>
+      <c r="H93" s="28"/>
+    </row>
+    <row r="94" spans="2:8" ht="57.6">
+      <c r="B94" s="19" t="s">
         <v>337</v>
       </c>
-      <c r="C94" s="54" t="s">
+      <c r="C94" s="28" t="s">
         <v>338</v>
       </c>
-      <c r="D94" s="54" t="s">
+      <c r="D94" s="28" t="s">
         <v>312</v>
       </c>
-      <c r="E94" s="56" t="s">
+      <c r="E94" s="30" t="s">
         <v>339</v>
       </c>
-      <c r="F94" s="54" t="s">
+      <c r="F94" s="28" t="s">
         <v>340</v>
       </c>
-      <c r="G94" s="54"/>
-      <c r="H94" s="54"/>
-    </row>
-    <row r="95" ht="51" spans="2:8">
-      <c r="B95" s="45" t="s">
+      <c r="G94" s="28"/>
+      <c r="H94" s="28"/>
+    </row>
+    <row r="95" spans="2:8" ht="57.6">
+      <c r="B95" s="19" t="s">
         <v>341</v>
       </c>
-      <c r="C95" s="54" t="s">
+      <c r="C95" s="28" t="s">
         <v>338</v>
       </c>
-      <c r="D95" s="54" t="s">
+      <c r="D95" s="28" t="s">
         <v>312</v>
       </c>
-      <c r="E95" s="56" t="s">
+      <c r="E95" s="30" t="s">
         <v>342</v>
       </c>
-      <c r="F95" s="54" t="s">
+      <c r="F95" s="28" t="s">
         <v>343</v>
       </c>
-      <c r="G95" s="54"/>
-      <c r="H95" s="54"/>
+      <c r="G95" s="28"/>
+      <c r="H95" s="28"/>
     </row>
     <row r="96" spans="2:8">
-      <c r="B96" s="47">
+      <c r="B96" s="21">
         <v>13</v>
       </c>
-      <c r="C96" s="48" t="s">
+      <c r="C96" s="22" t="s">
         <v>344</v>
       </c>
-      <c r="D96" s="48"/>
-      <c r="E96" s="48"/>
-      <c r="F96" s="48"/>
-      <c r="G96" s="48"/>
-      <c r="H96" s="48"/>
-    </row>
-    <row r="97" ht="28.5" customHeight="1" spans="2:8">
-      <c r="B97" s="45" t="s">
+      <c r="D96" s="22"/>
+      <c r="E96" s="22"/>
+      <c r="F96" s="22"/>
+      <c r="G96" s="22"/>
+      <c r="H96" s="22"/>
+    </row>
+    <row r="97" spans="2:8" ht="28.5" customHeight="1">
+      <c r="B97" s="19" t="s">
         <v>345</v>
       </c>
-      <c r="C97" s="46" t="s">
+      <c r="C97" s="20" t="s">
         <v>346</v>
       </c>
-      <c r="D97" s="46" t="s">
+      <c r="D97" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="E97" s="46" t="s">
+      <c r="E97" s="20" t="s">
         <v>348</v>
       </c>
-      <c r="F97" s="46" t="s">
+      <c r="F97" s="20" t="s">
         <v>349</v>
       </c>
-      <c r="G97" s="46"/>
-      <c r="H97" s="46"/>
-    </row>
-    <row r="98" ht="24" spans="2:8">
-      <c r="B98" s="45" t="s">
+      <c r="G97" s="20"/>
+      <c r="H97" s="20"/>
+    </row>
+    <row r="98" spans="2:8" ht="24">
+      <c r="B98" s="19" t="s">
         <v>350</v>
       </c>
-      <c r="C98" s="46" t="s">
+      <c r="C98" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="D98" s="46" t="s">
+      <c r="D98" s="20" t="s">
         <v>352</v>
       </c>
-      <c r="E98" s="46" t="s">
+      <c r="E98" s="20" t="s">
         <v>353</v>
       </c>
-      <c r="F98" s="46" t="s">
+      <c r="F98" s="20" t="s">
         <v>354</v>
       </c>
-      <c r="G98" s="46"/>
-      <c r="H98" s="46"/>
-    </row>
-    <row r="99" ht="24" spans="2:8">
-      <c r="B99" s="45" t="s">
+      <c r="G98" s="20"/>
+      <c r="H98" s="20"/>
+    </row>
+    <row r="99" spans="2:8" ht="24">
+      <c r="B99" s="19" t="s">
         <v>355</v>
       </c>
-      <c r="C99" s="46" t="s">
+      <c r="C99" s="20" t="s">
         <v>356</v>
       </c>
-      <c r="D99" s="46" t="s">
+      <c r="D99" s="20" t="s">
         <v>357</v>
       </c>
-      <c r="E99" s="46" t="s">
+      <c r="E99" s="20" t="s">
         <v>353</v>
       </c>
-      <c r="F99" s="46" t="s">
+      <c r="F99" s="20" t="s">
         <v>358</v>
       </c>
-      <c r="G99" s="46"/>
-      <c r="H99" s="46"/>
-    </row>
-    <row r="100" spans="2:8">
-      <c r="B100" s="47">
+      <c r="G99" s="20"/>
+      <c r="H99" s="20"/>
+    </row>
+    <row r="100" spans="2:8" ht="14.4">
+      <c r="B100" s="21">
         <v>14</v>
       </c>
-      <c r="C100" s="55" t="s">
+      <c r="C100" s="29" t="s">
         <v>359</v>
       </c>
-      <c r="D100" s="55"/>
-      <c r="E100" s="55"/>
-      <c r="F100" s="55"/>
-      <c r="G100" s="55"/>
-      <c r="H100" s="55"/>
-    </row>
-    <row r="101" ht="51" spans="2:8">
-      <c r="B101" s="45" t="s">
+      <c r="D100" s="29"/>
+      <c r="E100" s="29"/>
+      <c r="F100" s="29"/>
+      <c r="G100" s="29"/>
+      <c r="H100" s="29"/>
+    </row>
+    <row r="101" spans="2:8" ht="57.6">
+      <c r="B101" s="19" t="s">
         <v>360</v>
       </c>
-      <c r="C101" s="54" t="s">
+      <c r="C101" s="28" t="s">
         <v>361</v>
       </c>
-      <c r="D101" s="54" t="s">
+      <c r="D101" s="28" t="s">
         <v>312</v>
       </c>
-      <c r="E101" s="56" t="s">
+      <c r="E101" s="30" t="s">
         <v>362</v>
       </c>
-      <c r="F101" s="54" t="s">
+      <c r="F101" s="28" t="s">
         <v>363</v>
       </c>
-      <c r="G101" s="54"/>
-      <c r="H101" s="54"/>
-    </row>
-    <row r="102" ht="63.75" spans="2:8">
-      <c r="B102" s="45" t="s">
+      <c r="G101" s="28"/>
+      <c r="H101" s="28"/>
+    </row>
+    <row r="102" spans="2:8" ht="72">
+      <c r="B102" s="19" t="s">
         <v>364</v>
       </c>
-      <c r="C102" s="54" t="s">
+      <c r="C102" s="28" t="s">
         <v>365</v>
       </c>
-      <c r="D102" s="54" t="s">
+      <c r="D102" s="28" t="s">
         <v>366</v>
       </c>
-      <c r="E102" s="56" t="s">
+      <c r="E102" s="30" t="s">
         <v>367</v>
       </c>
-      <c r="F102" s="54" t="s">
+      <c r="F102" s="28" t="s">
         <v>368</v>
       </c>
-      <c r="G102" s="54"/>
-      <c r="H102" s="54"/>
-    </row>
-    <row r="103" ht="25.5" spans="2:8">
-      <c r="B103" s="45" t="s">
+      <c r="G102" s="28"/>
+      <c r="H102" s="28"/>
+    </row>
+    <row r="103" spans="2:8" ht="28.8">
+      <c r="B103" s="19" t="s">
         <v>369</v>
       </c>
-      <c r="C103" s="54" t="s">
+      <c r="C103" s="28" t="s">
         <v>370</v>
       </c>
-      <c r="D103" s="54" t="s">
+      <c r="D103" s="28" t="s">
         <v>371</v>
       </c>
-      <c r="E103" s="56" t="s">
+      <c r="E103" s="30" t="s">
         <v>372</v>
       </c>
-      <c r="F103" s="54" t="s">
+      <c r="F103" s="28" t="s">
         <v>373</v>
       </c>
-      <c r="G103" s="54"/>
-      <c r="H103" s="54"/>
-    </row>
-    <row r="104" ht="38.25" spans="2:8">
-      <c r="B104" s="45" t="s">
+      <c r="G103" s="28"/>
+      <c r="H103" s="28"/>
+    </row>
+    <row r="104" spans="2:8" ht="43.2">
+      <c r="B104" s="19" t="s">
         <v>374</v>
       </c>
-      <c r="C104" s="54" t="s">
+      <c r="C104" s="28" t="s">
         <v>375</v>
       </c>
-      <c r="D104" s="54" t="s">
+      <c r="D104" s="28" t="s">
         <v>371</v>
       </c>
-      <c r="E104" s="56" t="s">
+      <c r="E104" s="30" t="s">
         <v>376</v>
       </c>
-      <c r="F104" s="54" t="s">
+      <c r="F104" s="28" t="s">
         <v>377</v>
       </c>
-      <c r="G104" s="54"/>
-      <c r="H104" s="54"/>
-    </row>
-    <row r="105" ht="51" spans="2:8">
-      <c r="B105" s="45" t="s">
+      <c r="G104" s="28"/>
+      <c r="H104" s="28"/>
+    </row>
+    <row r="105" spans="2:8" ht="57.6">
+      <c r="B105" s="19" t="s">
         <v>378</v>
       </c>
-      <c r="C105" s="54" t="s">
+      <c r="C105" s="28" t="s">
         <v>379</v>
       </c>
-      <c r="D105" s="54" t="s">
+      <c r="D105" s="28" t="s">
         <v>371</v>
       </c>
-      <c r="E105" s="56" t="s">
+      <c r="E105" s="30" t="s">
         <v>380</v>
       </c>
-      <c r="F105" s="54" t="s">
+      <c r="F105" s="28" t="s">
         <v>381</v>
       </c>
-      <c r="G105" s="54"/>
-      <c r="H105" s="54"/>
-    </row>
-    <row r="106" ht="27" spans="3:3">
-      <c r="C106" s="57" t="s">
+      <c r="G105" s="28"/>
+      <c r="H105" s="28"/>
+    </row>
+    <row r="106" spans="2:8" ht="29.4">
+      <c r="C106" s="31" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="107" ht="14.25" spans="3:3">
-      <c r="C107" s="57" t="s">
+    <row r="107" spans="2:8" ht="15">
+      <c r="C107" s="31" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="108" ht="14.25" spans="3:3">
-      <c r="C108" s="57" t="s">
+    <row r="108" spans="2:8" ht="15">
+      <c r="C108" s="31" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="109" ht="14.25" spans="3:3">
-      <c r="C109" s="57" t="s">
+    <row r="109" spans="2:8" ht="15">
+      <c r="C109" s="31" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="110" ht="14.25" spans="3:3">
-      <c r="C110" s="57" t="s">
+    <row r="110" spans="2:8" ht="15">
+      <c r="C110" s="31" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="111" ht="28.5" spans="3:3">
-      <c r="C111" s="57" t="s">
+    <row r="111" spans="2:8" ht="30">
+      <c r="C111" s="31" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="112" ht="14.25" spans="3:3">
-      <c r="C112" s="57" t="s">
+    <row r="112" spans="2:8" ht="15">
+      <c r="C112" s="31" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="113" ht="14.25" spans="3:3">
-      <c r="C113" s="57" t="s">
+    <row r="113" spans="3:3" ht="15">
+      <c r="C113" s="31" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="114" ht="14.25" spans="3:3">
-      <c r="C114" s="57" t="s">
+    <row r="114" spans="3:3" ht="15">
+      <c r="C114" s="31" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="115" ht="27" spans="3:3">
-      <c r="C115" s="57" t="s">
+    <row r="115" spans="3:3" ht="29.4">
+      <c r="C115" s="31" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="116" ht="14.25" spans="3:3">
-      <c r="C116" s="57" t="s">
+    <row r="116" spans="3:3" ht="15">
+      <c r="C116" s="31" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="117" ht="14.25" spans="3:3">
-      <c r="C117" s="57" t="s">
+    <row r="117" spans="3:3" ht="15">
+      <c r="C117" s="31" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="118" ht="14.25" spans="3:3">
-      <c r="C118" s="57" t="s">
+    <row r="118" spans="3:3" ht="15">
+      <c r="C118" s="31" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="119" ht="14.25" spans="3:3">
-      <c r="C119" s="57" t="s">
+    <row r="119" spans="3:3" ht="15">
+      <c r="C119" s="31" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="120" ht="14.25" spans="3:3">
-      <c r="C120" s="57" t="s">
+    <row r="120" spans="3:3" ht="15">
+      <c r="C120" s="31" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="121" ht="41.25" spans="3:3">
-      <c r="C121" s="57" t="s">
+    <row r="121" spans="3:3" ht="44.4">
+      <c r="C121" s="31" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="122" ht="65.25" spans="3:3">
-      <c r="C122" s="57" t="s">
+    <row r="122" spans="3:3" ht="72.599999999999994">
+      <c r="C122" s="31" t="s">
         <v>398</v>
       </c>
     </row>
@@ -8117,801 +7678,817 @@
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B4:H4"/>
   </mergeCells>
+  <phoneticPr fontId="40" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G82 G96:G99">
       <formula1>"通过,不通过,不适用"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="64" topLeftCell="F7" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="B17" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="17.875" customWidth="1"/>
-    <col min="3" max="3" width="28.625" customWidth="1"/>
-    <col min="4" max="4" width="33.375" customWidth="1"/>
-    <col min="5" max="5" width="21.875" customWidth="1"/>
+    <col min="2" max="2" width="17.8984375" customWidth="1"/>
+    <col min="3" max="3" width="28.59765625" customWidth="1"/>
+    <col min="4" max="4" width="33.3984375" customWidth="1"/>
+    <col min="5" max="5" width="21.8984375" customWidth="1"/>
     <col min="6" max="6" width="37" customWidth="1"/>
-    <col min="7" max="7" width="53.625" customWidth="1"/>
-    <col min="8" max="8" width="25.625" customWidth="1"/>
+    <col min="7" max="7" width="53.59765625" customWidth="1"/>
+    <col min="8" max="8" width="25.59765625" customWidth="1"/>
     <col min="9" max="9" width="31" customWidth="1"/>
-    <col min="10" max="10" width="23.375" customWidth="1"/>
-    <col min="11" max="11" width="5.875" customWidth="1"/>
+    <col min="10" max="10" width="23.3984375" customWidth="1"/>
+    <col min="11" max="11" width="5.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="82" t="s">
         <v>399</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="83"/>
+      <c r="D1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" ht="112.5" spans="1:11">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:11" ht="118.8">
+      <c r="A2" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="84" t="s">
         <v>404</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="88" t="s">
         <v>405</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="13" t="s">
         <v>411</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="K2" s="9"/>
-    </row>
-    <row r="3" ht="112.5" spans="1:11">
-      <c r="A3" s="5" t="s">
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="1:11" ht="118.8">
+      <c r="A3" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="8" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="K3" s="9"/>
-    </row>
-    <row r="4" ht="112.5" spans="1:11">
-      <c r="A4" s="5" t="s">
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:11" ht="118.8">
+      <c r="A4" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="8" t="s">
+      <c r="B4" s="85"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="K4" s="9"/>
-    </row>
-    <row r="5" ht="112.5" spans="1:11">
-      <c r="A5" s="5" t="s">
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" ht="118.8">
+      <c r="A5" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="8" t="s">
+      <c r="B5" s="85"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="K5" s="9"/>
-    </row>
-    <row r="6" ht="112.5" spans="1:11">
-      <c r="A6" s="5" t="s">
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" ht="118.8">
+      <c r="A6" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="85"/>
+      <c r="C6" s="88" t="s">
         <v>434</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="K6" s="9"/>
-    </row>
-    <row r="7" ht="112.5" spans="1:11">
-      <c r="A7" s="5" t="s">
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" ht="118.8">
+      <c r="A7" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8" t="s">
+      <c r="B7" s="85"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="K7" s="9"/>
-    </row>
-    <row r="8" ht="112.5" spans="1:11">
-      <c r="A8" s="5" t="s">
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" ht="118.8">
+      <c r="A8" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8" t="s">
+      <c r="B8" s="85"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="K8" s="9"/>
-    </row>
-    <row r="9" ht="112.5" spans="1:11">
-      <c r="A9" s="5" t="s">
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" ht="118.8">
+      <c r="A9" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8" t="s">
+      <c r="B9" s="85"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="K9" s="9"/>
-    </row>
-    <row r="10" ht="409.5" spans="1:11">
-      <c r="A10" s="15" t="s">
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" ht="409.6">
+      <c r="A10" s="8" t="s">
         <v>453</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="92" t="s">
         <v>454</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="9" t="s">
+      <c r="C10" s="93"/>
+      <c r="D10" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="9" t="s">
         <v>459</v>
       </c>
-      <c r="I10" s="18" t="s">
+      <c r="I10" s="9" t="s">
         <v>460</v>
       </c>
-      <c r="J10" s="18" t="s">
+      <c r="J10" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="K10" s="9"/>
-    </row>
-    <row r="11" ht="93.75" spans="1:11">
-      <c r="A11" s="15" t="s">
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:11" ht="99">
+      <c r="A11" s="8" t="s">
         <v>462</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="9" t="s">
+      <c r="B11" s="94"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="H11" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="I11" s="18" t="s">
+      <c r="I11" s="9" t="s">
         <v>466</v>
       </c>
-      <c r="J11" s="18" t="s">
+      <c r="J11" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="K11" s="9"/>
-    </row>
-    <row r="12" ht="75" spans="1:11">
-      <c r="A12" s="5" t="s">
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:11" ht="79.2">
+      <c r="A12" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="9" t="s">
+      <c r="B12" s="94"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="H12" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="I12" s="18" t="s">
+      <c r="I12" s="9" t="s">
         <v>471</v>
       </c>
-      <c r="J12" s="18" t="s">
+      <c r="J12" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="K12" s="9"/>
-    </row>
-    <row r="13" ht="409.5" spans="1:11">
-      <c r="A13" s="5" t="s">
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:11" ht="409.6">
+      <c r="A13" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="95" t="s">
         <v>474</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="8" t="s">
+      <c r="C13" s="96"/>
+      <c r="D13" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="G13" s="22" t="s">
+      <c r="G13" s="10" t="s">
         <v>478</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="J13" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="K13" s="9"/>
-    </row>
-    <row r="14" ht="409.5" spans="1:11">
-      <c r="A14" s="5" t="s">
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" ht="409.6">
+      <c r="A14" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="8" t="s">
+      <c r="B14" s="97"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="I14" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="J14" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="K14" s="9"/>
-    </row>
-    <row r="15" ht="56.25" spans="1:11">
-      <c r="A15" s="5" t="s">
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:11" ht="59.4">
+      <c r="A15" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="86" t="s">
         <v>486</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="88" t="s">
         <v>487</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="I15" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="J15" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="K15" s="9"/>
-    </row>
-    <row r="16" ht="75" spans="1:11">
-      <c r="A16" s="5" t="s">
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:11" ht="79.2">
+      <c r="A16" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8" t="s">
+      <c r="B16" s="86"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="I16" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="J16" s="9" t="s">
+      <c r="J16" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="K16" s="9"/>
-    </row>
-    <row r="17" ht="56.25" spans="1:11">
-      <c r="A17" s="5" t="s">
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="1:11" ht="59.4">
+      <c r="A17" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="8" t="s">
+      <c r="B17" s="86"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="I17" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="J17" s="9" t="s">
+      <c r="J17" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="K17" s="9"/>
-    </row>
-    <row r="18" ht="37.5" spans="1:11">
-      <c r="A18" s="5" t="s">
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="1:11" ht="36.6">
+      <c r="A18" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="8" t="s">
+      <c r="B18" s="86"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="I18" s="9" t="s">
+      <c r="I18" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="J18" s="9" t="s">
+      <c r="J18" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="K18" s="9"/>
-    </row>
-    <row r="19" ht="56.25" spans="1:11">
-      <c r="A19" s="5" t="s">
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="1:11" ht="59.4">
+      <c r="A19" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="7" t="s">
+      <c r="B19" s="86"/>
+      <c r="C19" s="84" t="s">
         <v>509</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="I19" s="9" t="s">
+      <c r="I19" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="J19" s="9" t="s">
+      <c r="J19" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="K19" s="9"/>
-    </row>
-    <row r="20" ht="37.5" spans="1:11">
-      <c r="A20" s="5" t="s">
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="1:11" ht="39.6">
+      <c r="A20" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="9" t="s">
+      <c r="B20" s="86"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="I20" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="J20" s="9" t="s">
+      <c r="J20" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="K20" s="9"/>
-    </row>
-    <row r="21" ht="37.5" spans="1:11">
-      <c r="A21" s="5" t="s">
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="1:11" ht="39.6">
+      <c r="A21" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="9" t="s">
+      <c r="B21" s="86"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="5" t="s">
         <v>520</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="H21" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="I21" s="9" t="s">
+      <c r="I21" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="J21" s="9" t="s">
+      <c r="J21" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="K21" s="9"/>
-    </row>
-    <row r="22" ht="37.5" spans="1:11">
-      <c r="A22" s="5" t="s">
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="1:11" ht="39.6">
+      <c r="A22" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="9" t="s">
+      <c r="B22" s="87"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="H22" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="I22" s="9" t="s">
+      <c r="I22" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="J22" s="9" t="s">
+      <c r="J22" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="K22" s="9"/>
-    </row>
-    <row r="23" ht="61.5" customHeight="1" spans="1:11">
-      <c r="A23" s="5"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-    </row>
-    <row r="24" ht="56.25" customHeight="1" spans="1:11">
-      <c r="A24" s="5"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-    </row>
-    <row r="25" ht="71.1" customHeight="1" spans="1:11">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-    </row>
-    <row r="26" ht="71.1" customHeight="1" spans="1:11">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-    </row>
-    <row r="27" ht="69" customHeight="1" spans="1:11">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-    </row>
-    <row r="28" ht="18.75" spans="1:11">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-    </row>
-    <row r="29" ht="18.75" spans="1:11">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-    </row>
-    <row r="30" ht="18.75" spans="1:11">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" spans="1:11" ht="61.5" customHeight="1">
+      <c r="A23" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="K23" s="5"/>
+    </row>
+    <row r="24" spans="1:11" ht="56.25" customHeight="1">
+      <c r="A24" s="3"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+    </row>
+    <row r="25" spans="1:11" ht="71.099999999999994" customHeight="1">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+    </row>
+    <row r="26" spans="1:11" ht="71.099999999999994" customHeight="1">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+    </row>
+    <row r="27" spans="1:11" ht="69" customHeight="1">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+    </row>
+    <row r="28" spans="1:11" ht="19.8">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+    </row>
+    <row r="29" spans="1:11" ht="19.8">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+    </row>
+    <row r="30" spans="1:11" ht="19.8">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -8921,12 +8498,12 @@
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="C15:C18"/>
-    <mergeCell ref="C19:C22"/>
     <mergeCell ref="B10:C12"/>
     <mergeCell ref="B13:C14"/>
+    <mergeCell ref="C19:C23"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="40" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>